--- a/HW4/HW4_timing_diagram.xlsx
+++ b/HW4/HW4_timing_diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p8101\Desktop\school\Univ\senior(II)\VLSIDSP\2024\HW\HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86CB5A1C-8DB4-46CC-9F2E-4F989FECB225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719A6135-288D-4EEC-A6DC-A07F073033BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{C7D05135-D697-470D-9EE1-29DFD04BE2D1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="69">
   <si>
     <t>GG1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,14 @@
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>NEXT_IN_VALID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -457,7 +465,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -537,6 +545,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -853,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D391D6E-7CE6-436F-8BC5-25B300402672}">
-  <dimension ref="A1:CU63"/>
+  <dimension ref="A1:CU64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BR66" sqref="BR66"/>
+    <sheetView tabSelected="1" topLeftCell="L43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AP64" sqref="AP64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.15" x14ac:dyDescent="0.45"/>
@@ -1225,7 +1236,7 @@
       <c r="A3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="9">
         <v>81</v>
       </c>
@@ -1392,7 +1403,7 @@
       <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="13" t="s">
         <v>11</v>
       </c>
@@ -2116,15 +2127,15 @@
       <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="20" t="s">
         <v>16</v>
       </c>
@@ -3723,23 +3734,23 @@
       <c r="A17" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="24" t="s">
         <v>1</v>
       </c>
@@ -3882,17 +3893,17 @@
       <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="13" t="s">
         <v>11</v>
       </c>
@@ -4317,26 +4328,26 @@
       <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="20"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
+      <c r="T21" s="11"/>
+      <c r="U21" s="14"/>
       <c r="V21" s="20" t="s">
         <v>1</v>
       </c>
@@ -5572,33 +5583,33 @@
       <c r="A30" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
-      <c r="AA30" s="23"/>
-      <c r="AB30" s="23"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="11"/>
+      <c r="AA30" s="11"/>
+      <c r="AB30" s="11"/>
       <c r="AC30" s="24" t="s">
         <v>1</v>
       </c>
@@ -5695,29 +5706,29 @@
       <c r="A31" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
       <c r="Y31" s="13" t="s">
         <v>11</v>
       </c>
@@ -5967,38 +5978,38 @@
       <c r="A33" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="19"/>
-      <c r="R33" s="19"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="19"/>
-      <c r="U33" s="19"/>
-      <c r="V33" s="19"/>
-      <c r="W33" s="19"/>
-      <c r="X33" s="19"/>
-      <c r="Y33" s="20"/>
-      <c r="Z33" s="20"/>
-      <c r="AA33" s="20"/>
-      <c r="AB33" s="20"/>
-      <c r="AC33" s="20"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="19"/>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="20"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
+      <c r="X33" s="11"/>
+      <c r="Y33" s="14"/>
+      <c r="Z33" s="14"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AC33" s="14"/>
+      <c r="AD33" s="11"/>
+      <c r="AE33" s="11"/>
+      <c r="AF33" s="11"/>
+      <c r="AG33" s="14"/>
       <c r="AH33" s="20" t="s">
         <v>1</v>
       </c>
@@ -7126,43 +7137,43 @@
       <c r="A42" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
-      <c r="AA42" s="24"/>
-      <c r="AB42" s="24"/>
-      <c r="AC42" s="24"/>
-      <c r="AD42" s="24"/>
-      <c r="AE42" s="24"/>
-      <c r="AF42" s="24"/>
-      <c r="AG42" s="24"/>
-      <c r="AH42" s="24"/>
-      <c r="AI42" s="23"/>
-      <c r="AJ42" s="23"/>
-      <c r="AK42" s="23"/>
-      <c r="AL42" s="23"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
+      <c r="X42" s="11"/>
+      <c r="Y42" s="11"/>
+      <c r="Z42" s="11"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="14"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="11"/>
+      <c r="AJ42" s="11"/>
+      <c r="AK42" s="11"/>
+      <c r="AL42" s="11"/>
       <c r="AM42" s="24" t="s">
         <v>1</v>
       </c>
@@ -7241,40 +7252,40 @@
       <c r="A43" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="13"/>
-      <c r="J43" s="13"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="12"/>
-      <c r="AB43" s="12"/>
-      <c r="AC43" s="12"/>
-      <c r="AD43" s="12"/>
-      <c r="AE43" s="12"/>
-      <c r="AF43" s="12"/>
-      <c r="AG43" s="12"/>
-      <c r="AH43" s="12"/>
-      <c r="AI43" s="12"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+      <c r="Y43" s="11"/>
+      <c r="Z43" s="11"/>
+      <c r="AA43" s="11"/>
+      <c r="AB43" s="11"/>
+      <c r="AC43" s="11"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="11"/>
+      <c r="AF43" s="11"/>
+      <c r="AG43" s="11"/>
+      <c r="AH43" s="11"/>
+      <c r="AI43" s="11"/>
       <c r="AJ43" s="13" t="s">
         <v>11</v>
       </c>
@@ -7369,49 +7380,49 @@
       <c r="A44" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="20"/>
-      <c r="Z44" s="20"/>
-      <c r="AA44" s="20"/>
-      <c r="AB44" s="20"/>
-      <c r="AC44" s="20"/>
-      <c r="AD44" s="19"/>
-      <c r="AE44" s="19"/>
-      <c r="AF44" s="19"/>
-      <c r="AG44" s="20"/>
-      <c r="AH44" s="20"/>
-      <c r="AI44" s="20"/>
-      <c r="AJ44" s="20"/>
-      <c r="AK44" s="20"/>
-      <c r="AL44" s="20"/>
-      <c r="AM44" s="20"/>
-      <c r="AN44" s="20"/>
-      <c r="AO44" s="20"/>
-      <c r="AP44" s="20"/>
-      <c r="AQ44" s="20"/>
-      <c r="AR44" s="20"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="11"/>
+      <c r="V44" s="11"/>
+      <c r="W44" s="11"/>
+      <c r="X44" s="11"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" s="11"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="14"/>
+      <c r="AI44" s="14"/>
+      <c r="AJ44" s="14"/>
+      <c r="AK44" s="14"/>
+      <c r="AL44" s="14"/>
+      <c r="AM44" s="14"/>
+      <c r="AN44" s="14"/>
+      <c r="AO44" s="14"/>
+      <c r="AP44" s="14"/>
+      <c r="AQ44" s="14"/>
+      <c r="AR44" s="14"/>
       <c r="AS44" s="20" t="s">
         <v>1</v>
       </c>
@@ -8436,53 +8447,53 @@
       <c r="A53" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="23"/>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="23"/>
-      <c r="Z53" s="23"/>
-      <c r="AA53" s="24"/>
-      <c r="AB53" s="24"/>
-      <c r="AC53" s="24"/>
-      <c r="AD53" s="24"/>
-      <c r="AE53" s="24"/>
-      <c r="AF53" s="24"/>
-      <c r="AG53" s="24"/>
-      <c r="AH53" s="24"/>
-      <c r="AI53" s="23"/>
-      <c r="AJ53" s="23"/>
-      <c r="AK53" s="23"/>
-      <c r="AL53" s="23"/>
-      <c r="AM53" s="23"/>
-      <c r="AN53" s="23"/>
-      <c r="AO53" s="23"/>
-      <c r="AP53" s="23"/>
-      <c r="AQ53" s="23"/>
-      <c r="AR53" s="23"/>
-      <c r="AS53" s="23"/>
-      <c r="AT53" s="23"/>
-      <c r="AU53" s="23"/>
-      <c r="AV53" s="23"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="11"/>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
+      <c r="X53" s="11"/>
+      <c r="Y53" s="11"/>
+      <c r="Z53" s="11"/>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="14"/>
+      <c r="AC53" s="14"/>
+      <c r="AD53" s="14"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="14"/>
+      <c r="AI53" s="11"/>
+      <c r="AJ53" s="11"/>
+      <c r="AK53" s="11"/>
+      <c r="AL53" s="11"/>
+      <c r="AM53" s="11"/>
+      <c r="AN53" s="11"/>
+      <c r="AO53" s="11"/>
+      <c r="AP53" s="11"/>
+      <c r="AQ53" s="11"/>
+      <c r="AR53" s="11"/>
+      <c r="AS53" s="11"/>
+      <c r="AT53" s="11"/>
+      <c r="AU53" s="11"/>
+      <c r="AV53" s="11"/>
       <c r="AW53" s="24" t="s">
         <v>1</v>
       </c>
@@ -8543,47 +8554,47 @@
       <c r="A54" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="19"/>
-      <c r="R54" s="19"/>
-      <c r="S54" s="19"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
-      <c r="V54" s="19"/>
-      <c r="W54" s="19"/>
-      <c r="X54" s="19"/>
-      <c r="Y54" s="19"/>
-      <c r="Z54" s="19"/>
-      <c r="AA54" s="19"/>
-      <c r="AB54" s="19"/>
-      <c r="AC54" s="19"/>
-      <c r="AD54" s="19"/>
-      <c r="AE54" s="19"/>
-      <c r="AF54" s="19"/>
-      <c r="AG54" s="19"/>
-      <c r="AH54" s="19"/>
-      <c r="AI54" s="19"/>
-      <c r="AJ54" s="19"/>
-      <c r="AK54" s="19"/>
-      <c r="AL54" s="19"/>
-      <c r="AM54" s="19"/>
-      <c r="AN54" s="19"/>
-      <c r="AO54" s="19"/>
-      <c r="AP54" s="19"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="11"/>
+      <c r="Q54" s="11"/>
+      <c r="R54" s="11"/>
+      <c r="S54" s="11"/>
+      <c r="T54" s="11"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
+      <c r="X54" s="11"/>
+      <c r="Y54" s="11"/>
+      <c r="Z54" s="11"/>
+      <c r="AA54" s="11"/>
+      <c r="AB54" s="11"/>
+      <c r="AC54" s="11"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="11"/>
+      <c r="AF54" s="11"/>
+      <c r="AG54" s="11"/>
+      <c r="AH54" s="11"/>
+      <c r="AI54" s="11"/>
+      <c r="AJ54" s="11"/>
+      <c r="AK54" s="11"/>
+      <c r="AL54" s="11"/>
+      <c r="AM54" s="11"/>
+      <c r="AN54" s="11"/>
+      <c r="AO54" s="11"/>
+      <c r="AP54" s="11"/>
       <c r="AQ54" s="19">
         <v>11</v>
       </c>
@@ -9363,8 +9374,8 @@
       <c r="BS62" s="10"/>
     </row>
     <row r="63" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A63" s="26" t="s">
-        <v>65</v>
+      <c r="A63" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -9406,7 +9417,9 @@
       <c r="AM63" s="10"/>
       <c r="AN63" s="10"/>
       <c r="AO63" s="10"/>
-      <c r="AP63" s="10"/>
+      <c r="AP63" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="AQ63" s="10"/>
       <c r="AR63" s="10"/>
       <c r="AS63" s="10"/>
@@ -9438,6 +9451,11 @@
       <c r="BR63" s="10"/>
       <c r="BS63" s="10"/>
     </row>
+    <row r="64" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="A64" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HW4/HW4_timing_diagram.xlsx
+++ b/HW4/HW4_timing_diagram.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p8101\Desktop\school\Univ\senior(II)\VLSIDSP\2024\HW\HW4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719A6135-288D-4EEC-A6DC-A07F073033BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B9D2FD-7624-430E-9274-376B7C730C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{C7D05135-D697-470D-9EE1-29DFD04BE2D1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="73">
   <si>
     <t>GG1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,18 +143,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MK1_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MK2_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MK3_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RD_DATA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MK4_Q</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CYCLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,6 +284,38 @@
   </si>
   <si>
     <t>IN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK1_Q_former</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK1_Q_later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK2_Q_former</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK2_Q_later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK3_Q_former</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK3_Q_later</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK4_Q_former</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MK4_Q_later</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -465,7 +481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,9 +561,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -864,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D391D6E-7CE6-436F-8BC5-25B300402672}">
-  <dimension ref="A1:CU64"/>
+  <dimension ref="A1:CU71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AP64" sqref="AP64"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BG14" sqref="BG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.15" x14ac:dyDescent="0.45"/>
@@ -879,7 +892,7 @@
   <sheetData>
     <row r="1" spans="1:99" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B1" s="8">
         <v>1</v>
@@ -1234,7 +1247,7 @@
     </row>
     <row r="3" spans="1:99" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="9">
@@ -2135,7 +2148,9 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="J8" s="20" t="s">
+        <v>16</v>
+      </c>
       <c r="K8" s="20" t="s">
         <v>16</v>
       </c>
@@ -2145,10 +2160,10 @@
       <c r="M8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="3"/>
+      <c r="O8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="14"/>
       <c r="P8" s="20" t="s">
         <v>16</v>
       </c>
@@ -2158,10 +2173,10 @@
       <c r="R8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="S8" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="T8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="20" t="s">
+        <v>1</v>
+      </c>
       <c r="U8" s="20" t="s">
         <v>1</v>
       </c>
@@ -2171,10 +2186,10 @@
       <c r="W8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="X8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="20" t="s">
+        <v>1</v>
+      </c>
       <c r="Z8" s="20" t="s">
         <v>1</v>
       </c>
@@ -2184,10 +2199,10 @@
       <c r="AB8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AC8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="20" t="s">
+        <v>1</v>
+      </c>
       <c r="AE8" s="20" t="s">
         <v>1</v>
       </c>
@@ -2197,10 +2212,10 @@
       <c r="AG8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AH8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="14"/>
+      <c r="AH8" s="14"/>
+      <c r="AI8" s="20" t="s">
+        <v>1</v>
+      </c>
       <c r="AJ8" s="20" t="s">
         <v>1</v>
       </c>
@@ -2210,10 +2225,10 @@
       <c r="AL8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AM8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="14"/>
+      <c r="AM8" s="14"/>
+      <c r="AN8" s="20" t="s">
+        <v>1</v>
+      </c>
       <c r="AO8" s="20" t="s">
         <v>1</v>
       </c>
@@ -2223,9 +2238,7 @@
       <c r="AQ8" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="AR8" s="20" t="s">
-        <v>1</v>
-      </c>
+      <c r="AR8" s="3"/>
       <c r="AS8" s="14"/>
       <c r="AT8" s="14"/>
       <c r="AU8" s="14"/>
@@ -3008,7 +3021,7 @@
     </row>
     <row r="13" spans="1:99" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3189,7 +3202,7 @@
     </row>
     <row r="14" spans="1:99" x14ac:dyDescent="0.45">
       <c r="A14" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -3370,7 +3383,7 @@
     </row>
     <row r="15" spans="1:99" x14ac:dyDescent="0.45">
       <c r="A15" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3551,7 +3564,7 @@
     </row>
     <row r="16" spans="1:99" x14ac:dyDescent="0.45">
       <c r="A16" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3732,7 +3745,7 @@
     </row>
     <row r="17" spans="1:99" x14ac:dyDescent="0.45">
       <c r="A17" s="23" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="14"/>
@@ -3747,13 +3760,19 @@
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="24" t="s">
-        <v>1</v>
-      </c>
+      <c r="O17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="S17" s="14"/>
       <c r="T17" s="24" t="s">
         <v>1</v>
       </c>
@@ -3763,10 +3782,10 @@
       <c r="V17" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="W17" s="14"/>
-      <c r="X17" s="24" t="s">
-        <v>1</v>
-      </c>
+      <c r="W17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="X17" s="14"/>
       <c r="Y17" s="24" t="s">
         <v>1</v>
       </c>
@@ -3776,10 +3795,10 @@
       <c r="AA17" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="24" t="s">
-        <v>1</v>
-      </c>
+      <c r="AB17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="14"/>
       <c r="AD17" s="24" t="s">
         <v>1</v>
       </c>
@@ -3789,10 +3808,10 @@
       <c r="AF17" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AG17" s="14"/>
-      <c r="AH17" s="24" t="s">
-        <v>1</v>
-      </c>
+      <c r="AG17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="14"/>
       <c r="AI17" s="24" t="s">
         <v>1</v>
       </c>
@@ -3802,10 +3821,10 @@
       <c r="AK17" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AL17" s="14"/>
-      <c r="AM17" s="24" t="s">
-        <v>1</v>
-      </c>
+      <c r="AL17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="18"/>
       <c r="AN17" s="24" t="s">
         <v>1</v>
       </c>
@@ -3815,10 +3834,10 @@
       <c r="AP17" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AQ17" s="18"/>
-      <c r="AR17" s="24" t="s">
-        <v>1</v>
-      </c>
+      <c r="AQ17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR17" s="18"/>
       <c r="AS17" s="24" t="s">
         <v>1</v>
       </c>
@@ -3828,22 +3847,12 @@
       <c r="AU17" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="AV17" s="18"/>
-      <c r="AW17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ17" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA17" s="10"/>
-      <c r="BB17" s="10"/>
-      <c r="BC17" s="10"/>
+      <c r="AV17" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="10"/>
       <c r="BD17" s="10"/>
       <c r="BE17" s="10"/>
       <c r="BF17" s="10"/>
@@ -3890,8 +3899,8 @@
       <c r="CU17" s="3"/>
     </row>
     <row r="18" spans="1:99" x14ac:dyDescent="0.45">
-      <c r="A18" s="12" t="s">
-        <v>5</v>
+      <c r="A18" s="23" t="s">
+        <v>66</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="14"/>
@@ -3902,141 +3911,107 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="O18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="R18" s="13">
-        <v>78</v>
-      </c>
-      <c r="S18" s="13">
-        <v>78</v>
-      </c>
-      <c r="T18" s="13">
-        <v>78</v>
-      </c>
-      <c r="U18" s="13">
-        <v>78</v>
-      </c>
-      <c r="V18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="W18" s="13">
-        <v>67</v>
-      </c>
-      <c r="X18" s="13">
-        <v>67</v>
-      </c>
-      <c r="Y18" s="13">
-        <v>67</v>
-      </c>
-      <c r="Z18" s="13">
-        <v>67</v>
-      </c>
-      <c r="AA18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB18" s="13">
-        <v>56</v>
-      </c>
-      <c r="AC18" s="13">
-        <v>56</v>
-      </c>
-      <c r="AD18" s="13">
-        <v>56</v>
-      </c>
-      <c r="AE18" s="13">
-        <v>56</v>
-      </c>
-      <c r="AF18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG18" s="13">
-        <v>45</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>45</v>
-      </c>
-      <c r="AI18" s="13">
-        <v>45</v>
-      </c>
-      <c r="AJ18" s="13">
-        <v>45</v>
-      </c>
-      <c r="AK18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>34</v>
-      </c>
-      <c r="AM18" s="13">
-        <v>34</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>34</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>34</v>
-      </c>
-      <c r="AP18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>23</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>23</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>23</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>23</v>
-      </c>
-      <c r="AU18" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV18" s="14"/>
-      <c r="AW18" s="14"/>
-      <c r="AX18" s="14"/>
-      <c r="AY18" s="14"/>
-      <c r="AZ18" s="14"/>
-      <c r="BA18" s="14"/>
-      <c r="BB18" s="14"/>
-      <c r="BC18" s="14"/>
-      <c r="BD18" s="14"/>
-      <c r="BE18" s="14"/>
-      <c r="BF18" s="11"/>
-      <c r="BG18" s="14"/>
-      <c r="BH18" s="14"/>
-      <c r="BI18" s="14"/>
-      <c r="BJ18" s="14"/>
-      <c r="BK18" s="14"/>
-      <c r="BL18" s="14"/>
-      <c r="BM18" s="14"/>
-      <c r="BN18" s="14"/>
-      <c r="BO18" s="14"/>
-      <c r="BP18" s="11"/>
-      <c r="BQ18" s="14"/>
-      <c r="BR18" s="11"/>
-      <c r="BS18" s="11"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="S18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="T18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="V18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="W18" s="14"/>
+      <c r="X18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="14"/>
+      <c r="AH18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="18"/>
+      <c r="AR18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="18"/>
+      <c r="AW18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY18" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="24" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:99" x14ac:dyDescent="0.45">
-      <c r="A19" s="11" t="s">
-        <v>6</v>
+      <c r="A19" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="14"/>
@@ -4047,141 +4022,141 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="R19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="S19" s="14">
-        <v>78</v>
-      </c>
-      <c r="T19" s="14">
-        <v>78</v>
-      </c>
-      <c r="U19" s="14">
-        <v>78</v>
-      </c>
-      <c r="V19" s="14">
-        <v>78</v>
-      </c>
-      <c r="W19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="X19" s="14">
-        <v>67</v>
-      </c>
-      <c r="Y19" s="14">
-        <v>67</v>
-      </c>
-      <c r="Z19" s="14">
-        <v>67</v>
-      </c>
-      <c r="AA19" s="14">
-        <v>67</v>
-      </c>
-      <c r="AB19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC19" s="14">
-        <v>56</v>
-      </c>
-      <c r="AD19" s="14">
-        <v>56</v>
-      </c>
-      <c r="AE19" s="14">
-        <v>56</v>
-      </c>
-      <c r="AF19" s="14">
-        <v>56</v>
-      </c>
-      <c r="AG19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH19" s="14">
-        <v>45</v>
-      </c>
-      <c r="AI19" s="14">
-        <v>45</v>
-      </c>
-      <c r="AJ19" s="14">
-        <v>45</v>
-      </c>
-      <c r="AK19" s="14">
-        <v>45</v>
-      </c>
-      <c r="AL19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM19" s="14">
-        <v>34</v>
-      </c>
-      <c r="AN19" s="14">
-        <v>34</v>
-      </c>
-      <c r="AO19" s="14">
-        <v>34</v>
-      </c>
-      <c r="AP19" s="14">
-        <v>34</v>
-      </c>
-      <c r="AQ19" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR19" s="14">
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="13">
+        <v>78</v>
+      </c>
+      <c r="S19" s="13">
+        <v>78</v>
+      </c>
+      <c r="T19" s="13">
+        <v>78</v>
+      </c>
+      <c r="U19" s="13">
+        <v>78</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="W19" s="13">
+        <v>67</v>
+      </c>
+      <c r="X19" s="13">
+        <v>67</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>67</v>
+      </c>
+      <c r="Z19" s="13">
+        <v>67</v>
+      </c>
+      <c r="AA19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>56</v>
+      </c>
+      <c r="AC19" s="13">
+        <v>56</v>
+      </c>
+      <c r="AD19" s="13">
+        <v>56</v>
+      </c>
+      <c r="AE19" s="13">
+        <v>56</v>
+      </c>
+      <c r="AF19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG19" s="13">
+        <v>45</v>
+      </c>
+      <c r="AH19" s="13">
+        <v>45</v>
+      </c>
+      <c r="AI19" s="13">
+        <v>45</v>
+      </c>
+      <c r="AJ19" s="13">
+        <v>45</v>
+      </c>
+      <c r="AK19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL19" s="13">
+        <v>34</v>
+      </c>
+      <c r="AM19" s="13">
+        <v>34</v>
+      </c>
+      <c r="AN19" s="13">
+        <v>34</v>
+      </c>
+      <c r="AO19" s="13">
+        <v>34</v>
+      </c>
+      <c r="AP19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ19" s="13">
         <v>23</v>
       </c>
-      <c r="AS19" s="14">
+      <c r="AR19" s="13">
         <v>23</v>
       </c>
-      <c r="AT19" s="14">
+      <c r="AS19" s="13">
         <v>23</v>
       </c>
-      <c r="AU19" s="14">
+      <c r="AT19" s="13">
         <v>23</v>
       </c>
-      <c r="AV19" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="AU19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV19" s="14"/>
       <c r="AW19" s="14"/>
-      <c r="AX19" s="18"/>
-      <c r="AY19" s="18"/>
-      <c r="AZ19" s="18"/>
-      <c r="BA19" s="10"/>
-      <c r="BB19" s="10"/>
-      <c r="BC19" s="10"/>
-      <c r="BD19" s="10"/>
-      <c r="BE19" s="10"/>
-      <c r="BF19" s="10"/>
-      <c r="BG19" s="10"/>
-      <c r="BH19" s="10"/>
-      <c r="BI19" s="10"/>
-      <c r="BJ19" s="10"/>
-      <c r="BK19" s="10"/>
-      <c r="BL19" s="11"/>
-      <c r="BM19" s="11"/>
-      <c r="BN19" s="11"/>
-      <c r="BO19" s="11"/>
+      <c r="AX19" s="14"/>
+      <c r="AY19" s="14"/>
+      <c r="AZ19" s="14"/>
+      <c r="BA19" s="14"/>
+      <c r="BB19" s="14"/>
+      <c r="BC19" s="14"/>
+      <c r="BD19" s="14"/>
+      <c r="BE19" s="14"/>
+      <c r="BF19" s="11"/>
+      <c r="BG19" s="14"/>
+      <c r="BH19" s="14"/>
+      <c r="BI19" s="14"/>
+      <c r="BJ19" s="14"/>
+      <c r="BK19" s="14"/>
+      <c r="BL19" s="14"/>
+      <c r="BM19" s="14"/>
+      <c r="BN19" s="14"/>
+      <c r="BO19" s="14"/>
       <c r="BP19" s="11"/>
-      <c r="BQ19" s="10"/>
-      <c r="BR19" s="10"/>
-      <c r="BS19" s="10"/>
+      <c r="BQ19" s="14"/>
+      <c r="BR19" s="11"/>
+      <c r="BS19" s="11"/>
     </row>
     <row r="20" spans="1:99" x14ac:dyDescent="0.45">
       <c r="A20" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="14"/>
@@ -4195,7 +4170,9 @@
       <c r="K20" s="10"/>
       <c r="L20" s="10"/>
       <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="N20" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="O20" s="14" t="s">
         <v>11</v>
       </c>
@@ -4208,8 +4185,8 @@
       <c r="R20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="S20" s="14" t="s">
-        <v>11</v>
+      <c r="S20" s="14">
+        <v>78</v>
       </c>
       <c r="T20" s="14">
         <v>78</v>
@@ -4220,11 +4197,11 @@
       <c r="V20" s="14">
         <v>78</v>
       </c>
-      <c r="W20" s="14">
-        <v>78</v>
-      </c>
-      <c r="X20" s="14" t="s">
-        <v>11</v>
+      <c r="W20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="X20" s="14">
+        <v>67</v>
       </c>
       <c r="Y20" s="14">
         <v>67</v>
@@ -4235,11 +4212,11 @@
       <c r="AA20" s="14">
         <v>67</v>
       </c>
-      <c r="AB20" s="14">
-        <v>67</v>
-      </c>
-      <c r="AC20" s="14" t="s">
-        <v>11</v>
+      <c r="AB20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>56</v>
       </c>
       <c r="AD20" s="14">
         <v>56</v>
@@ -4250,11 +4227,11 @@
       <c r="AF20" s="14">
         <v>56</v>
       </c>
-      <c r="AG20" s="14">
-        <v>56</v>
-      </c>
-      <c r="AH20" s="14" t="s">
-        <v>11</v>
+      <c r="AG20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH20" s="14">
+        <v>45</v>
       </c>
       <c r="AI20" s="14">
         <v>45</v>
@@ -4265,11 +4242,11 @@
       <c r="AK20" s="14">
         <v>45</v>
       </c>
-      <c r="AL20" s="14">
-        <v>45</v>
-      </c>
-      <c r="AM20" s="14" t="s">
-        <v>11</v>
+      <c r="AL20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM20" s="14">
+        <v>34</v>
       </c>
       <c r="AN20" s="14">
         <v>34</v>
@@ -4280,11 +4257,11 @@
       <c r="AP20" s="14">
         <v>34</v>
       </c>
-      <c r="AQ20" s="14">
-        <v>34</v>
-      </c>
-      <c r="AR20" s="14" t="s">
-        <v>11</v>
+      <c r="AQ20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR20" s="14">
+        <v>23</v>
       </c>
       <c r="AS20" s="14">
         <v>23</v>
@@ -4295,12 +4272,10 @@
       <c r="AU20" s="14">
         <v>23</v>
       </c>
-      <c r="AV20" s="14">
-        <v>23</v>
-      </c>
-      <c r="AW20" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="AV20" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW20" s="14"/>
       <c r="AX20" s="18"/>
       <c r="AY20" s="18"/>
       <c r="AZ20" s="18"/>
@@ -4325,8 +4300,8 @@
       <c r="BS20" s="10"/>
     </row>
     <row r="21" spans="1:99" x14ac:dyDescent="0.45">
-      <c r="A21" s="19" t="s">
-        <v>14</v>
+      <c r="A21" s="11" t="s">
+        <v>7</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="14"/>
@@ -4337,84 +4312,118 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="W21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="X21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="14"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI21" s="14"/>
-      <c r="AJ21" s="14"/>
-      <c r="AK21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN21" s="14"/>
-      <c r="AO21" s="14"/>
-      <c r="AP21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS21" s="18"/>
-      <c r="AT21" s="18"/>
-      <c r="AU21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV21" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AW21" s="20" t="s">
-        <v>1</v>
+      <c r="O21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="T21" s="14">
+        <v>78</v>
+      </c>
+      <c r="U21" s="14">
+        <v>78</v>
+      </c>
+      <c r="V21" s="14">
+        <v>78</v>
+      </c>
+      <c r="W21" s="14">
+        <v>78</v>
+      </c>
+      <c r="X21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>67</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>67</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>67</v>
+      </c>
+      <c r="AB21" s="14">
+        <v>67</v>
+      </c>
+      <c r="AC21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD21" s="14">
+        <v>56</v>
+      </c>
+      <c r="AE21" s="14">
+        <v>56</v>
+      </c>
+      <c r="AF21" s="14">
+        <v>56</v>
+      </c>
+      <c r="AG21" s="14">
+        <v>56</v>
+      </c>
+      <c r="AH21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI21" s="14">
+        <v>45</v>
+      </c>
+      <c r="AJ21" s="14">
+        <v>45</v>
+      </c>
+      <c r="AK21" s="14">
+        <v>45</v>
+      </c>
+      <c r="AL21" s="14">
+        <v>45</v>
+      </c>
+      <c r="AM21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN21" s="14">
+        <v>34</v>
+      </c>
+      <c r="AO21" s="14">
+        <v>34</v>
+      </c>
+      <c r="AP21" s="14">
+        <v>34</v>
+      </c>
+      <c r="AQ21" s="14">
+        <v>34</v>
+      </c>
+      <c r="AR21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS21" s="14">
+        <v>23</v>
+      </c>
+      <c r="AT21" s="14">
+        <v>23</v>
+      </c>
+      <c r="AU21" s="14">
+        <v>23</v>
+      </c>
+      <c r="AV21" s="14">
+        <v>23</v>
+      </c>
+      <c r="AW21" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AX21" s="18"/>
-      <c r="AY21" s="10"/>
-      <c r="AZ21" s="10"/>
+      <c r="AY21" s="18"/>
+      <c r="AZ21" s="18"/>
       <c r="BA21" s="10"/>
       <c r="BB21" s="10"/>
       <c r="BC21" s="10"/>
@@ -4426,7 +4435,7 @@
       <c r="BI21" s="10"/>
       <c r="BJ21" s="10"/>
       <c r="BK21" s="10"/>
-      <c r="BL21" s="10"/>
+      <c r="BL21" s="11"/>
       <c r="BM21" s="11"/>
       <c r="BN21" s="11"/>
       <c r="BO21" s="11"/>
@@ -4436,151 +4445,119 @@
       <c r="BS21" s="10"/>
     </row>
     <row r="22" spans="1:99" x14ac:dyDescent="0.45">
-      <c r="A22" s="11" t="s">
-        <v>21</v>
+      <c r="A22" s="19" t="s">
+        <v>14</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="R22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="S22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="T22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="U22" s="14">
-        <v>78</v>
-      </c>
-      <c r="V22" s="14">
-        <v>78</v>
-      </c>
-      <c r="W22" s="14">
-        <v>78</v>
-      </c>
-      <c r="X22" s="14">
-        <v>78</v>
-      </c>
-      <c r="Y22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z22" s="14">
-        <v>67</v>
-      </c>
-      <c r="AA22" s="14">
-        <v>67</v>
-      </c>
-      <c r="AB22" s="14">
-        <v>67</v>
-      </c>
-      <c r="AC22" s="14">
-        <v>67</v>
-      </c>
-      <c r="AD22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE22" s="14">
-        <v>56</v>
-      </c>
-      <c r="AF22" s="14">
-        <v>56</v>
-      </c>
-      <c r="AG22" s="14">
-        <v>56</v>
-      </c>
-      <c r="AH22" s="14">
-        <v>56</v>
-      </c>
-      <c r="AI22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ22" s="14">
-        <v>45</v>
-      </c>
-      <c r="AK22" s="14">
-        <v>45</v>
-      </c>
-      <c r="AL22" s="14">
-        <v>45</v>
-      </c>
-      <c r="AM22" s="14">
-        <v>45</v>
-      </c>
-      <c r="AN22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO22" s="14">
-        <v>34</v>
-      </c>
-      <c r="AP22" s="14">
-        <v>34</v>
-      </c>
-      <c r="AQ22" s="14">
-        <v>34</v>
-      </c>
-      <c r="AR22" s="14">
-        <v>34</v>
-      </c>
-      <c r="AS22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT22" s="14">
-        <v>23</v>
-      </c>
-      <c r="AU22" s="14">
-        <v>23</v>
-      </c>
-      <c r="AV22" s="14">
-        <v>23</v>
-      </c>
-      <c r="AW22" s="14">
-        <v>23</v>
-      </c>
-      <c r="AX22" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY22" s="14"/>
-      <c r="AZ22" s="14"/>
-      <c r="BA22" s="14"/>
-      <c r="BB22" s="14"/>
-      <c r="BC22" s="14"/>
-      <c r="BD22" s="14"/>
-      <c r="BE22" s="15"/>
-      <c r="BF22" s="15"/>
-      <c r="BG22" s="15"/>
-      <c r="BH22" s="14"/>
-      <c r="BI22" s="14"/>
-      <c r="BJ22" s="11"/>
-      <c r="BK22" s="11"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="11"/>
+      <c r="S22" s="11"/>
+      <c r="T22" s="11"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="W22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="X22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AK22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN22" s="14"/>
+      <c r="AO22" s="14"/>
+      <c r="AP22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="18"/>
+      <c r="AT22" s="18"/>
+      <c r="AU22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW22" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX22" s="18"/>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="10"/>
+      <c r="BD22" s="10"/>
+      <c r="BE22" s="10"/>
+      <c r="BF22" s="10"/>
+      <c r="BG22" s="10"/>
+      <c r="BH22" s="10"/>
+      <c r="BI22" s="10"/>
+      <c r="BJ22" s="10"/>
+      <c r="BK22" s="10"/>
       <c r="BL22" s="10"/>
-      <c r="BM22" s="10"/>
+      <c r="BM22" s="11"/>
       <c r="BN22" s="11"/>
       <c r="BO22" s="11"/>
       <c r="BP22" s="11"/>
-      <c r="BQ22" s="11"/>
+      <c r="BQ22" s="10"/>
       <c r="BR22" s="10"/>
       <c r="BS22" s="10"/>
     </row>
     <row r="23" spans="1:99" x14ac:dyDescent="0.45">
       <c r="A23" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="14"/>
@@ -4597,7 +4574,9 @@
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
-      <c r="Q23" s="14"/>
+      <c r="Q23" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="R23" s="14" t="s">
         <v>11</v>
       </c>
@@ -4607,8 +4586,8 @@
       <c r="T23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="U23" s="14" t="s">
-        <v>11</v>
+      <c r="U23" s="14">
+        <v>78</v>
       </c>
       <c r="V23" s="14">
         <v>78</v>
@@ -4619,11 +4598,11 @@
       <c r="X23" s="14">
         <v>78</v>
       </c>
-      <c r="Y23" s="14">
-        <v>78</v>
-      </c>
-      <c r="Z23" s="14" t="s">
-        <v>11</v>
+      <c r="Y23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z23" s="14">
+        <v>67</v>
       </c>
       <c r="AA23" s="14">
         <v>67</v>
@@ -4634,11 +4613,11 @@
       <c r="AC23" s="14">
         <v>67</v>
       </c>
-      <c r="AD23" s="14">
-        <v>67</v>
-      </c>
-      <c r="AE23" s="14" t="s">
-        <v>11</v>
+      <c r="AD23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE23" s="14">
+        <v>56</v>
       </c>
       <c r="AF23" s="14">
         <v>56</v>
@@ -4649,11 +4628,11 @@
       <c r="AH23" s="14">
         <v>56</v>
       </c>
-      <c r="AI23" s="14">
-        <v>56</v>
-      </c>
-      <c r="AJ23" s="14" t="s">
-        <v>11</v>
+      <c r="AI23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ23" s="14">
+        <v>45</v>
       </c>
       <c r="AK23" s="14">
         <v>45</v>
@@ -4664,11 +4643,11 @@
       <c r="AM23" s="14">
         <v>45</v>
       </c>
-      <c r="AN23" s="14">
-        <v>45</v>
-      </c>
-      <c r="AO23" s="14" t="s">
-        <v>11</v>
+      <c r="AN23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO23" s="14">
+        <v>34</v>
       </c>
       <c r="AP23" s="14">
         <v>34</v>
@@ -4679,11 +4658,11 @@
       <c r="AR23" s="14">
         <v>34</v>
       </c>
-      <c r="AS23" s="14">
-        <v>34</v>
-      </c>
-      <c r="AT23" s="14" t="s">
-        <v>11</v>
+      <c r="AS23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT23" s="14">
+        <v>23</v>
       </c>
       <c r="AU23" s="14">
         <v>23</v>
@@ -4694,36 +4673,34 @@
       <c r="AW23" s="14">
         <v>23</v>
       </c>
-      <c r="AX23" s="14">
-        <v>23</v>
-      </c>
-      <c r="AY23" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="AX23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY23" s="14"/>
       <c r="AZ23" s="14"/>
       <c r="BA23" s="14"/>
       <c r="BB23" s="14"/>
       <c r="BC23" s="14"/>
       <c r="BD23" s="14"/>
-      <c r="BE23" s="14"/>
-      <c r="BF23" s="16"/>
-      <c r="BG23" s="16"/>
+      <c r="BE23" s="15"/>
+      <c r="BF23" s="15"/>
+      <c r="BG23" s="15"/>
       <c r="BH23" s="14"/>
       <c r="BI23" s="14"/>
       <c r="BJ23" s="11"/>
       <c r="BK23" s="11"/>
       <c r="BL23" s="10"/>
       <c r="BM23" s="10"/>
-      <c r="BN23" s="10"/>
-      <c r="BO23" s="10"/>
-      <c r="BP23" s="10"/>
-      <c r="BQ23" s="10"/>
+      <c r="BN23" s="11"/>
+      <c r="BO23" s="11"/>
+      <c r="BP23" s="11"/>
+      <c r="BQ23" s="11"/>
       <c r="BR23" s="10"/>
       <c r="BS23" s="10"/>
     </row>
     <row r="24" spans="1:99" x14ac:dyDescent="0.45">
       <c r="A24" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="14"/>
@@ -4741,7 +4718,9 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
       <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
+      <c r="R24" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="S24" s="14" t="s">
         <v>11</v>
       </c>
@@ -4751,8 +4730,8 @@
       <c r="U24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="V24" s="14" t="s">
-        <v>11</v>
+      <c r="V24" s="14">
+        <v>78</v>
       </c>
       <c r="W24" s="14">
         <v>78</v>
@@ -4763,11 +4742,11 @@
       <c r="Y24" s="14">
         <v>78</v>
       </c>
-      <c r="Z24" s="14">
-        <v>78</v>
-      </c>
-      <c r="AA24" s="14" t="s">
-        <v>11</v>
+      <c r="Z24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>67</v>
       </c>
       <c r="AB24" s="14">
         <v>67</v>
@@ -4778,11 +4757,11 @@
       <c r="AD24" s="14">
         <v>67</v>
       </c>
-      <c r="AE24" s="14">
-        <v>67</v>
-      </c>
-      <c r="AF24" s="14" t="s">
-        <v>11</v>
+      <c r="AE24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF24" s="14">
+        <v>56</v>
       </c>
       <c r="AG24" s="14">
         <v>56</v>
@@ -4793,11 +4772,11 @@
       <c r="AI24" s="14">
         <v>56</v>
       </c>
-      <c r="AJ24" s="14">
-        <v>56</v>
-      </c>
-      <c r="AK24" s="14" t="s">
-        <v>11</v>
+      <c r="AJ24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK24" s="14">
+        <v>45</v>
       </c>
       <c r="AL24" s="14">
         <v>45</v>
@@ -4808,11 +4787,11 @@
       <c r="AN24" s="14">
         <v>45</v>
       </c>
-      <c r="AO24" s="14">
-        <v>45</v>
-      </c>
-      <c r="AP24" s="14" t="s">
-        <v>11</v>
+      <c r="AO24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP24" s="14">
+        <v>34</v>
       </c>
       <c r="AQ24" s="14">
         <v>34</v>
@@ -4823,11 +4802,11 @@
       <c r="AS24" s="14">
         <v>34</v>
       </c>
-      <c r="AT24" s="14">
-        <v>34</v>
-      </c>
-      <c r="AU24" s="14" t="s">
-        <v>11</v>
+      <c r="AT24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU24" s="14">
+        <v>23</v>
       </c>
       <c r="AV24" s="14">
         <v>23</v>
@@ -4838,23 +4817,21 @@
       <c r="AX24" s="14">
         <v>23</v>
       </c>
-      <c r="AY24" s="14">
-        <v>23</v>
-      </c>
-      <c r="AZ24" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="AY24" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ24" s="14"/>
       <c r="BA24" s="14"/>
       <c r="BB24" s="14"/>
       <c r="BC24" s="14"/>
       <c r="BD24" s="14"/>
       <c r="BE24" s="14"/>
-      <c r="BF24" s="14"/>
-      <c r="BG24" s="17"/>
+      <c r="BF24" s="16"/>
+      <c r="BG24" s="16"/>
       <c r="BH24" s="14"/>
       <c r="BI24" s="14"/>
       <c r="BJ24" s="11"/>
-      <c r="BK24" s="10"/>
+      <c r="BK24" s="11"/>
       <c r="BL24" s="10"/>
       <c r="BM24" s="10"/>
       <c r="BN24" s="10"/>
@@ -4866,7 +4843,7 @@
     </row>
     <row r="25" spans="1:99" x14ac:dyDescent="0.45">
       <c r="A25" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="14"/>
@@ -4885,7 +4862,9 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
+      <c r="S25" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="T25" s="14" t="s">
         <v>11</v>
       </c>
@@ -4895,8 +4874,8 @@
       <c r="V25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="W25" s="14" t="s">
-        <v>11</v>
+      <c r="W25" s="14">
+        <v>78</v>
       </c>
       <c r="X25" s="14">
         <v>78</v>
@@ -4907,11 +4886,11 @@
       <c r="Z25" s="14">
         <v>78</v>
       </c>
-      <c r="AA25" s="14">
-        <v>78</v>
-      </c>
-      <c r="AB25" s="14" t="s">
-        <v>11</v>
+      <c r="AA25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB25" s="14">
+        <v>67</v>
       </c>
       <c r="AC25" s="14">
         <v>67</v>
@@ -4922,11 +4901,11 @@
       <c r="AE25" s="14">
         <v>67</v>
       </c>
-      <c r="AF25" s="14">
-        <v>67</v>
-      </c>
-      <c r="AG25" s="14" t="s">
-        <v>11</v>
+      <c r="AF25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG25" s="14">
+        <v>56</v>
       </c>
       <c r="AH25" s="14">
         <v>56</v>
@@ -4937,11 +4916,11 @@
       <c r="AJ25" s="14">
         <v>56</v>
       </c>
-      <c r="AK25" s="14">
-        <v>56</v>
-      </c>
-      <c r="AL25" s="14" t="s">
-        <v>11</v>
+      <c r="AK25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL25" s="14">
+        <v>45</v>
       </c>
       <c r="AM25" s="14">
         <v>45</v>
@@ -4952,11 +4931,11 @@
       <c r="AO25" s="14">
         <v>45</v>
       </c>
-      <c r="AP25" s="14">
-        <v>45</v>
-      </c>
-      <c r="AQ25" s="14" t="s">
-        <v>11</v>
+      <c r="AP25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ25" s="14">
+        <v>34</v>
       </c>
       <c r="AR25" s="14">
         <v>34</v>
@@ -4967,11 +4946,11 @@
       <c r="AT25" s="14">
         <v>34</v>
       </c>
-      <c r="AU25" s="14">
-        <v>34</v>
-      </c>
-      <c r="AV25" s="14" t="s">
-        <v>11</v>
+      <c r="AU25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV25" s="14">
+        <v>23</v>
       </c>
       <c r="AW25" s="14">
         <v>23</v>
@@ -4982,24 +4961,22 @@
       <c r="AY25" s="14">
         <v>23</v>
       </c>
-      <c r="AZ25" s="14">
-        <v>23</v>
-      </c>
-      <c r="BA25" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="AZ25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA25" s="14"/>
       <c r="BB25" s="14"/>
       <c r="BC25" s="14"/>
       <c r="BD25" s="14"/>
       <c r="BE25" s="14"/>
       <c r="BF25" s="14"/>
-      <c r="BG25" s="14"/>
-      <c r="BH25" s="18"/>
-      <c r="BI25" s="18"/>
-      <c r="BJ25" s="10"/>
-      <c r="BK25" s="11"/>
+      <c r="BG25" s="17"/>
+      <c r="BH25" s="14"/>
+      <c r="BI25" s="14"/>
+      <c r="BJ25" s="11"/>
+      <c r="BK25" s="10"/>
       <c r="BL25" s="10"/>
-      <c r="BM25" s="11"/>
+      <c r="BM25" s="10"/>
       <c r="BN25" s="10"/>
       <c r="BO25" s="10"/>
       <c r="BP25" s="10"/>
@@ -5009,13 +4986,13 @@
     </row>
     <row r="26" spans="1:99" x14ac:dyDescent="0.45">
       <c r="A26" s="11" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
@@ -5026,10 +5003,12 @@
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
       <c r="P26" s="10"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="U26" s="14" t="s">
         <v>11</v>
       </c>
@@ -5039,8 +5018,8 @@
       <c r="W26" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="X26" s="14" t="s">
-        <v>11</v>
+      <c r="X26" s="14">
+        <v>78</v>
       </c>
       <c r="Y26" s="14">
         <v>78</v>
@@ -5051,11 +5030,11 @@
       <c r="AA26" s="14">
         <v>78</v>
       </c>
-      <c r="AB26" s="14">
-        <v>78</v>
-      </c>
-      <c r="AC26" s="14" t="s">
-        <v>11</v>
+      <c r="AB26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC26" s="14">
+        <v>67</v>
       </c>
       <c r="AD26" s="14">
         <v>67</v>
@@ -5066,11 +5045,11 @@
       <c r="AF26" s="14">
         <v>67</v>
       </c>
-      <c r="AG26" s="14">
-        <v>67</v>
-      </c>
-      <c r="AH26" s="14" t="s">
-        <v>11</v>
+      <c r="AG26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH26" s="14">
+        <v>56</v>
       </c>
       <c r="AI26" s="14">
         <v>56</v>
@@ -5081,11 +5060,11 @@
       <c r="AK26" s="14">
         <v>56</v>
       </c>
-      <c r="AL26" s="14">
-        <v>56</v>
-      </c>
-      <c r="AM26" s="14" t="s">
-        <v>11</v>
+      <c r="AL26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM26" s="14">
+        <v>45</v>
       </c>
       <c r="AN26" s="14">
         <v>45</v>
@@ -5096,11 +5075,11 @@
       <c r="AP26" s="14">
         <v>45</v>
       </c>
-      <c r="AQ26" s="14">
-        <v>45</v>
-      </c>
-      <c r="AR26" s="14" t="s">
-        <v>11</v>
+      <c r="AQ26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR26" s="14">
+        <v>34</v>
       </c>
       <c r="AS26" s="14">
         <v>34</v>
@@ -5111,11 +5090,11 @@
       <c r="AU26" s="14">
         <v>34</v>
       </c>
-      <c r="AV26" s="14">
-        <v>34</v>
-      </c>
-      <c r="AW26" s="14" t="s">
-        <v>11</v>
+      <c r="AV26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AW26" s="14">
+        <v>23</v>
       </c>
       <c r="AX26" s="14">
         <v>23</v>
@@ -5126,21 +5105,19 @@
       <c r="AZ26" s="14">
         <v>23</v>
       </c>
-      <c r="BA26" s="14">
-        <v>23</v>
-      </c>
-      <c r="BB26" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="BA26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB26" s="14"/>
       <c r="BC26" s="14"/>
       <c r="BD26" s="14"/>
       <c r="BE26" s="14"/>
       <c r="BF26" s="14"/>
       <c r="BG26" s="14"/>
-      <c r="BH26" s="14"/>
-      <c r="BI26" s="15"/>
-      <c r="BJ26" s="15"/>
-      <c r="BK26" s="10"/>
+      <c r="BH26" s="18"/>
+      <c r="BI26" s="18"/>
+      <c r="BJ26" s="10"/>
+      <c r="BK26" s="11"/>
       <c r="BL26" s="10"/>
       <c r="BM26" s="11"/>
       <c r="BN26" s="10"/>
@@ -5152,13 +5129,13 @@
     </row>
     <row r="27" spans="1:99" x14ac:dyDescent="0.45">
       <c r="A27" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+        <v>34</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="10"/>
       <c r="H27" s="10"/>
       <c r="I27" s="10"/>
@@ -5169,11 +5146,13 @@
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="14"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="V27" s="14" t="s">
         <v>11</v>
       </c>
@@ -5183,8 +5162,8 @@
       <c r="X27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Y27" s="14" t="s">
-        <v>11</v>
+      <c r="Y27" s="14">
+        <v>78</v>
       </c>
       <c r="Z27" s="14">
         <v>78</v>
@@ -5195,11 +5174,11 @@
       <c r="AB27" s="14">
         <v>78</v>
       </c>
-      <c r="AC27" s="14">
-        <v>78</v>
-      </c>
-      <c r="AD27" s="14" t="s">
-        <v>11</v>
+      <c r="AC27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD27" s="14">
+        <v>67</v>
       </c>
       <c r="AE27" s="14">
         <v>67</v>
@@ -5210,11 +5189,11 @@
       <c r="AG27" s="14">
         <v>67</v>
       </c>
-      <c r="AH27" s="14">
-        <v>67</v>
-      </c>
-      <c r="AI27" s="14" t="s">
-        <v>11</v>
+      <c r="AH27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI27" s="14">
+        <v>56</v>
       </c>
       <c r="AJ27" s="14">
         <v>56</v>
@@ -5225,11 +5204,11 @@
       <c r="AL27" s="14">
         <v>56</v>
       </c>
-      <c r="AM27" s="14">
-        <v>56</v>
-      </c>
-      <c r="AN27" s="14" t="s">
-        <v>11</v>
+      <c r="AM27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN27" s="14">
+        <v>45</v>
       </c>
       <c r="AO27" s="14">
         <v>45</v>
@@ -5240,11 +5219,11 @@
       <c r="AQ27" s="14">
         <v>45</v>
       </c>
-      <c r="AR27" s="14">
-        <v>45</v>
-      </c>
-      <c r="AS27" s="14" t="s">
-        <v>11</v>
+      <c r="AR27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS27" s="14">
+        <v>34</v>
       </c>
       <c r="AT27" s="14">
         <v>34</v>
@@ -5255,11 +5234,11 @@
       <c r="AV27" s="14">
         <v>34</v>
       </c>
-      <c r="AW27" s="14">
-        <v>34</v>
-      </c>
-      <c r="AX27" s="14" t="s">
-        <v>11</v>
+      <c r="AW27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX27" s="14">
+        <v>23</v>
       </c>
       <c r="AY27" s="14">
         <v>23</v>
@@ -5270,19 +5249,17 @@
       <c r="BA27" s="14">
         <v>23</v>
       </c>
-      <c r="BB27" s="14">
-        <v>23</v>
-      </c>
-      <c r="BC27" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="BB27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC27" s="14"/>
       <c r="BD27" s="14"/>
       <c r="BE27" s="14"/>
       <c r="BF27" s="14"/>
-      <c r="BG27" s="18"/>
-      <c r="BH27" s="18"/>
-      <c r="BI27" s="14"/>
-      <c r="BJ27" s="16"/>
+      <c r="BG27" s="14"/>
+      <c r="BH27" s="14"/>
+      <c r="BI27" s="15"/>
+      <c r="BJ27" s="15"/>
       <c r="BK27" s="10"/>
       <c r="BL27" s="10"/>
       <c r="BM27" s="11"/>
@@ -5295,7 +5272,7 @@
     </row>
     <row r="28" spans="1:99" x14ac:dyDescent="0.45">
       <c r="A28" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
@@ -5317,7 +5294,9 @@
       <c r="S28" s="10"/>
       <c r="T28" s="10"/>
       <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
+      <c r="V28" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="W28" s="14" t="s">
         <v>11</v>
       </c>
@@ -5327,8 +5306,8 @@
       <c r="Y28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Z28" s="14" t="s">
-        <v>11</v>
+      <c r="Z28" s="14">
+        <v>78</v>
       </c>
       <c r="AA28" s="14">
         <v>78</v>
@@ -5339,11 +5318,11 @@
       <c r="AC28" s="14">
         <v>78</v>
       </c>
-      <c r="AD28" s="14">
-        <v>78</v>
-      </c>
-      <c r="AE28" s="14" t="s">
-        <v>11</v>
+      <c r="AD28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE28" s="14">
+        <v>67</v>
       </c>
       <c r="AF28" s="14">
         <v>67</v>
@@ -5354,11 +5333,11 @@
       <c r="AH28" s="14">
         <v>67</v>
       </c>
-      <c r="AI28" s="14">
-        <v>67</v>
-      </c>
-      <c r="AJ28" s="14" t="s">
-        <v>11</v>
+      <c r="AI28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ28" s="14">
+        <v>56</v>
       </c>
       <c r="AK28" s="14">
         <v>56</v>
@@ -5369,11 +5348,11 @@
       <c r="AM28" s="14">
         <v>56</v>
       </c>
-      <c r="AN28" s="14">
-        <v>56</v>
-      </c>
-      <c r="AO28" s="14" t="s">
-        <v>11</v>
+      <c r="AN28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO28" s="14">
+        <v>45</v>
       </c>
       <c r="AP28" s="14">
         <v>45</v>
@@ -5384,11 +5363,11 @@
       <c r="AR28" s="14">
         <v>45</v>
       </c>
-      <c r="AS28" s="14">
-        <v>45</v>
-      </c>
-      <c r="AT28" s="14" t="s">
-        <v>11</v>
+      <c r="AS28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT28" s="14">
+        <v>34</v>
       </c>
       <c r="AU28" s="14">
         <v>34</v>
@@ -5399,11 +5378,11 @@
       <c r="AW28" s="14">
         <v>34</v>
       </c>
-      <c r="AX28" s="14">
-        <v>34</v>
-      </c>
-      <c r="AY28" s="14" t="s">
-        <v>11</v>
+      <c r="AX28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY28" s="14">
+        <v>23</v>
       </c>
       <c r="AZ28" s="14">
         <v>23</v>
@@ -5414,18 +5393,16 @@
       <c r="BB28" s="14">
         <v>23</v>
       </c>
-      <c r="BC28" s="14">
-        <v>23</v>
-      </c>
-      <c r="BD28" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="BC28" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD28" s="14"/>
       <c r="BE28" s="14"/>
       <c r="BF28" s="14"/>
-      <c r="BG28" s="14"/>
+      <c r="BG28" s="18"/>
       <c r="BH28" s="18"/>
-      <c r="BI28" s="18"/>
-      <c r="BJ28" s="14"/>
+      <c r="BI28" s="14"/>
+      <c r="BJ28" s="16"/>
       <c r="BK28" s="10"/>
       <c r="BL28" s="10"/>
       <c r="BM28" s="11"/>
@@ -5438,7 +5415,7 @@
     </row>
     <row r="29" spans="1:99" x14ac:dyDescent="0.45">
       <c r="A29" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
@@ -5461,7 +5438,9 @@
       <c r="T29" s="10"/>
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
+      <c r="W29" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="X29" s="14" t="s">
         <v>11</v>
       </c>
@@ -5471,8 +5450,8 @@
       <c r="Z29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AA29" s="14" t="s">
-        <v>11</v>
+      <c r="AA29" s="14">
+        <v>78</v>
       </c>
       <c r="AB29" s="14">
         <v>78</v>
@@ -5483,11 +5462,11 @@
       <c r="AD29" s="14">
         <v>78</v>
       </c>
-      <c r="AE29" s="14">
-        <v>78</v>
-      </c>
-      <c r="AF29" s="14" t="s">
-        <v>11</v>
+      <c r="AE29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF29" s="14">
+        <v>67</v>
       </c>
       <c r="AG29" s="14">
         <v>67</v>
@@ -5498,11 +5477,11 @@
       <c r="AI29" s="14">
         <v>67</v>
       </c>
-      <c r="AJ29" s="14">
-        <v>67</v>
-      </c>
-      <c r="AK29" s="14" t="s">
-        <v>11</v>
+      <c r="AJ29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK29" s="14">
+        <v>56</v>
       </c>
       <c r="AL29" s="14">
         <v>56</v>
@@ -5513,11 +5492,11 @@
       <c r="AN29" s="14">
         <v>56</v>
       </c>
-      <c r="AO29" s="14">
-        <v>56</v>
-      </c>
-      <c r="AP29" s="14" t="s">
-        <v>11</v>
+      <c r="AO29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP29" s="14">
+        <v>45</v>
       </c>
       <c r="AQ29" s="14">
         <v>45</v>
@@ -5528,11 +5507,11 @@
       <c r="AS29" s="14">
         <v>45</v>
       </c>
-      <c r="AT29" s="14">
-        <v>45</v>
-      </c>
-      <c r="AU29" s="14" t="s">
-        <v>11</v>
+      <c r="AT29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU29" s="14">
+        <v>34</v>
       </c>
       <c r="AV29" s="14">
         <v>34</v>
@@ -5543,11 +5522,11 @@
       <c r="AX29" s="14">
         <v>34</v>
       </c>
-      <c r="AY29" s="14">
-        <v>34</v>
-      </c>
-      <c r="AZ29" s="14" t="s">
-        <v>11</v>
+      <c r="AY29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ29" s="14">
+        <v>23</v>
       </c>
       <c r="BA29" s="14">
         <v>23</v>
@@ -5558,18 +5537,16 @@
       <c r="BC29" s="14">
         <v>23</v>
       </c>
-      <c r="BD29" s="14">
-        <v>23</v>
-      </c>
-      <c r="BE29" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="BD29" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE29" s="14"/>
       <c r="BF29" s="14"/>
       <c r="BG29" s="14"/>
-      <c r="BH29" s="14"/>
+      <c r="BH29" s="18"/>
       <c r="BI29" s="18"/>
-      <c r="BJ29" s="18"/>
-      <c r="BK29" s="11"/>
+      <c r="BJ29" s="14"/>
+      <c r="BK29" s="10"/>
       <c r="BL29" s="10"/>
       <c r="BM29" s="11"/>
       <c r="BN29" s="10"/>
@@ -5580,122 +5557,142 @@
       <c r="BS29" s="10"/>
     </row>
     <row r="30" spans="1:99" x14ac:dyDescent="0.45">
-      <c r="A30" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
+      <c r="A30" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
       <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG30" s="14"/>
-      <c r="AH30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AK30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AL30" s="14"/>
-      <c r="AM30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ30" s="14"/>
-      <c r="AR30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV30" s="14"/>
-      <c r="AW30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA30" s="18"/>
-      <c r="BB30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE30" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF30" s="18"/>
+      <c r="X30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB30" s="14">
+        <v>78</v>
+      </c>
+      <c r="AC30" s="14">
+        <v>78</v>
+      </c>
+      <c r="AD30" s="14">
+        <v>78</v>
+      </c>
+      <c r="AE30" s="14">
+        <v>78</v>
+      </c>
+      <c r="AF30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG30" s="14">
+        <v>67</v>
+      </c>
+      <c r="AH30" s="14">
+        <v>67</v>
+      </c>
+      <c r="AI30" s="14">
+        <v>67</v>
+      </c>
+      <c r="AJ30" s="14">
+        <v>67</v>
+      </c>
+      <c r="AK30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL30" s="14">
+        <v>56</v>
+      </c>
+      <c r="AM30" s="14">
+        <v>56</v>
+      </c>
+      <c r="AN30" s="14">
+        <v>56</v>
+      </c>
+      <c r="AO30" s="14">
+        <v>56</v>
+      </c>
+      <c r="AP30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ30" s="14">
+        <v>45</v>
+      </c>
+      <c r="AR30" s="14">
+        <v>45</v>
+      </c>
+      <c r="AS30" s="14">
+        <v>45</v>
+      </c>
+      <c r="AT30" s="14">
+        <v>45</v>
+      </c>
+      <c r="AU30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV30" s="14">
+        <v>34</v>
+      </c>
+      <c r="AW30" s="14">
+        <v>34</v>
+      </c>
+      <c r="AX30" s="14">
+        <v>34</v>
+      </c>
+      <c r="AY30" s="14">
+        <v>34</v>
+      </c>
+      <c r="AZ30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA30" s="14">
+        <v>23</v>
+      </c>
+      <c r="BB30" s="14">
+        <v>23</v>
+      </c>
+      <c r="BC30" s="14">
+        <v>23</v>
+      </c>
+      <c r="BD30" s="14">
+        <v>23</v>
+      </c>
+      <c r="BE30" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF30" s="14"/>
       <c r="BG30" s="14"/>
       <c r="BH30" s="14"/>
-      <c r="BI30" s="14"/>
+      <c r="BI30" s="18"/>
       <c r="BJ30" s="18"/>
-      <c r="BK30" s="18"/>
+      <c r="BK30" s="11"/>
       <c r="BL30" s="10"/>
       <c r="BM30" s="11"/>
-      <c r="BN30" s="11"/>
+      <c r="BN30" s="10"/>
       <c r="BO30" s="10"/>
       <c r="BP30" s="10"/>
       <c r="BQ30" s="10"/>
@@ -5703,280 +5700,234 @@
       <c r="BS30" s="10"/>
     </row>
     <row r="31" spans="1:99" x14ac:dyDescent="0.45">
-      <c r="A31" s="12" t="s">
-        <v>8</v>
+      <c r="A31" s="23" t="s">
+        <v>67</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD31" s="13">
-        <v>78</v>
-      </c>
-      <c r="AE31" s="13">
-        <v>78</v>
-      </c>
-      <c r="AF31" s="13">
-        <v>78</v>
-      </c>
-      <c r="AG31" s="13">
-        <v>78</v>
-      </c>
-      <c r="AH31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI31" s="13">
-        <v>67</v>
-      </c>
-      <c r="AJ31" s="13">
-        <v>67</v>
-      </c>
-      <c r="AK31" s="13">
-        <v>67</v>
-      </c>
-      <c r="AL31" s="13">
-        <v>67</v>
-      </c>
-      <c r="AM31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN31" s="13">
-        <v>56</v>
-      </c>
-      <c r="AO31" s="13">
-        <v>56</v>
-      </c>
-      <c r="AP31" s="13">
-        <v>56</v>
-      </c>
-      <c r="AQ31" s="13">
-        <v>56</v>
-      </c>
-      <c r="AR31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS31" s="13">
-        <v>45</v>
-      </c>
-      <c r="AT31" s="13">
-        <v>45</v>
-      </c>
-      <c r="AU31" s="13">
-        <v>45</v>
-      </c>
-      <c r="AV31" s="13">
-        <v>45</v>
-      </c>
-      <c r="AW31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AX31" s="13">
-        <v>34</v>
-      </c>
-      <c r="AY31" s="13">
-        <v>34</v>
-      </c>
-      <c r="AZ31" s="13">
-        <v>34</v>
-      </c>
-      <c r="BA31" s="13">
-        <v>34</v>
-      </c>
-      <c r="BB31" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="BC31" s="14"/>
-      <c r="BD31" s="14"/>
-      <c r="BE31" s="14"/>
-      <c r="BF31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="14"/>
+      <c r="AH31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AQ31" s="14"/>
+      <c r="AR31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="18"/>
+      <c r="AW31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ31" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF31" s="18"/>
       <c r="BG31" s="14"/>
       <c r="BH31" s="14"/>
       <c r="BI31" s="14"/>
-      <c r="BJ31" s="14"/>
-      <c r="BK31" s="14"/>
-      <c r="BL31" s="14"/>
-      <c r="BM31" s="14"/>
-      <c r="BN31" s="14"/>
-      <c r="BO31" s="14"/>
-      <c r="BP31" s="14"/>
-      <c r="BQ31" s="11"/>
-      <c r="BR31" s="11"/>
-      <c r="BS31" s="11"/>
-      <c r="BT31" s="3"/>
-      <c r="BU31" s="3"/>
+      <c r="BJ31" s="18"/>
+      <c r="BK31" s="18"/>
+      <c r="BL31" s="10"/>
+      <c r="BM31" s="11"/>
+      <c r="BN31" s="11"/>
+      <c r="BO31" s="10"/>
+      <c r="BP31" s="10"/>
+      <c r="BQ31" s="10"/>
+      <c r="BR31" s="10"/>
+      <c r="BS31" s="10"/>
     </row>
     <row r="32" spans="1:99" x14ac:dyDescent="0.45">
-      <c r="A32" s="11" t="s">
-        <v>9</v>
+      <c r="A32" s="23" t="s">
+        <v>68</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="14"/>
-      <c r="Z32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE32" s="14">
-        <v>78</v>
-      </c>
-      <c r="AF32" s="14">
-        <v>78</v>
-      </c>
-      <c r="AG32" s="14">
-        <v>78</v>
-      </c>
-      <c r="AH32" s="14">
-        <v>78</v>
-      </c>
-      <c r="AI32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ32" s="14">
-        <v>67</v>
-      </c>
-      <c r="AK32" s="14">
-        <v>67</v>
-      </c>
-      <c r="AL32" s="14">
-        <v>67</v>
-      </c>
-      <c r="AM32" s="14">
-        <v>67</v>
-      </c>
-      <c r="AN32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO32" s="14">
-        <v>56</v>
-      </c>
-      <c r="AP32" s="14">
-        <v>56</v>
-      </c>
-      <c r="AQ32" s="14">
-        <v>56</v>
-      </c>
-      <c r="AR32" s="14">
-        <v>56</v>
-      </c>
-      <c r="AS32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT32" s="14">
-        <v>45</v>
-      </c>
-      <c r="AU32" s="14">
-        <v>45</v>
-      </c>
-      <c r="AV32" s="14">
-        <v>45</v>
-      </c>
-      <c r="AW32" s="14">
-        <v>45</v>
-      </c>
-      <c r="AX32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY32" s="14">
-        <v>34</v>
-      </c>
-      <c r="AZ32" s="14">
-        <v>34</v>
-      </c>
-      <c r="BA32" s="14">
-        <v>34</v>
-      </c>
-      <c r="BB32" s="14">
-        <v>34</v>
-      </c>
-      <c r="BC32" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD32" s="18"/>
-      <c r="BE32" s="18"/>
-      <c r="BF32" s="14"/>
-      <c r="BG32" s="10"/>
-      <c r="BH32" s="10"/>
-      <c r="BI32" s="11"/>
-      <c r="BJ32" s="18"/>
-      <c r="BK32" s="18"/>
-      <c r="BL32" s="10"/>
-      <c r="BM32" s="18"/>
-      <c r="BN32" s="10"/>
-      <c r="BO32" s="10"/>
-      <c r="BP32" s="10"/>
-      <c r="BQ32" s="10"/>
-      <c r="BR32" s="10"/>
-      <c r="BS32" s="10"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+      <c r="T32" s="14"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
+      <c r="W32" s="14"/>
+      <c r="X32" s="14"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="11"/>
+      <c r="AA32" s="11"/>
+      <c r="AB32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="14"/>
+      <c r="AG32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="14"/>
+      <c r="AL32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="14"/>
+      <c r="AQ32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="14"/>
+      <c r="AV32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ32" s="18"/>
+      <c r="BA32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC32" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD32" s="24" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:74" x14ac:dyDescent="0.45">
-      <c r="A33" s="19" t="s">
-        <v>15</v>
+      <c r="A33" s="12" t="s">
+        <v>8</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="14"/>
@@ -5987,8 +5938,8 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
       <c r="M33" s="11"/>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
@@ -6001,87 +5952,129 @@
       <c r="V33" s="11"/>
       <c r="W33" s="11"/>
       <c r="X33" s="11"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="14"/>
-      <c r="AH33" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AI33" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ33" s="14"/>
-      <c r="AK33" s="14"/>
-      <c r="AL33" s="14"/>
-      <c r="AM33" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN33" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO33" s="14"/>
-      <c r="AP33" s="14"/>
-      <c r="AQ33" s="14"/>
-      <c r="AR33" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS33" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT33" s="14"/>
-      <c r="AU33" s="14"/>
-      <c r="AV33" s="14"/>
-      <c r="AW33" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX33" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY33" s="14"/>
-      <c r="AZ33" s="14"/>
-      <c r="BA33" s="14"/>
-      <c r="BB33" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC33" s="20" t="s">
-        <v>1</v>
-      </c>
+      <c r="Y33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD33" s="13">
+        <v>78</v>
+      </c>
+      <c r="AE33" s="13">
+        <v>78</v>
+      </c>
+      <c r="AF33" s="13">
+        <v>78</v>
+      </c>
+      <c r="AG33" s="13">
+        <v>78</v>
+      </c>
+      <c r="AH33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI33" s="13">
+        <v>67</v>
+      </c>
+      <c r="AJ33" s="13">
+        <v>67</v>
+      </c>
+      <c r="AK33" s="13">
+        <v>67</v>
+      </c>
+      <c r="AL33" s="13">
+        <v>67</v>
+      </c>
+      <c r="AM33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN33" s="13">
+        <v>56</v>
+      </c>
+      <c r="AO33" s="13">
+        <v>56</v>
+      </c>
+      <c r="AP33" s="13">
+        <v>56</v>
+      </c>
+      <c r="AQ33" s="13">
+        <v>56</v>
+      </c>
+      <c r="AR33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS33" s="13">
+        <v>45</v>
+      </c>
+      <c r="AT33" s="13">
+        <v>45</v>
+      </c>
+      <c r="AU33" s="13">
+        <v>45</v>
+      </c>
+      <c r="AV33" s="13">
+        <v>45</v>
+      </c>
+      <c r="AW33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AX33" s="13">
+        <v>34</v>
+      </c>
+      <c r="AY33" s="13">
+        <v>34</v>
+      </c>
+      <c r="AZ33" s="13">
+        <v>34</v>
+      </c>
+      <c r="BA33" s="13">
+        <v>34</v>
+      </c>
+      <c r="BB33" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="BC33" s="14"/>
       <c r="BD33" s="14"/>
-      <c r="BE33" s="10"/>
-      <c r="BF33" s="10"/>
-      <c r="BG33" s="10"/>
-      <c r="BH33" s="10"/>
-      <c r="BI33" s="10"/>
-      <c r="BJ33" s="10"/>
-      <c r="BK33" s="10"/>
-      <c r="BL33" s="10"/>
-      <c r="BM33" s="10"/>
-      <c r="BN33" s="10"/>
-      <c r="BO33" s="10"/>
-      <c r="BP33" s="10"/>
-      <c r="BQ33" s="10"/>
-      <c r="BR33" s="10"/>
-      <c r="BS33" s="10"/>
+      <c r="BE33" s="14"/>
+      <c r="BF33" s="14"/>
+      <c r="BG33" s="14"/>
+      <c r="BH33" s="14"/>
+      <c r="BI33" s="14"/>
+      <c r="BJ33" s="14"/>
+      <c r="BK33" s="14"/>
+      <c r="BL33" s="14"/>
+      <c r="BM33" s="14"/>
+      <c r="BN33" s="14"/>
+      <c r="BO33" s="14"/>
+      <c r="BP33" s="14"/>
+      <c r="BQ33" s="11"/>
+      <c r="BR33" s="11"/>
+      <c r="BS33" s="11"/>
+      <c r="BT33" s="3"/>
+      <c r="BU33" s="3"/>
     </row>
     <row r="34" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A34" s="11" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
       <c r="K34" s="10"/>
       <c r="L34" s="10"/>
       <c r="M34" s="10"/>
@@ -6096,8 +6089,10 @@
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
       <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
-      <c r="Z34" s="10"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="AA34" s="14" t="s">
         <v>11</v>
       </c>
@@ -6185,151 +6180,113 @@
       <c r="BC34" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="BD34" s="14"/>
-      <c r="BE34" s="10"/>
-      <c r="BF34" s="10"/>
+      <c r="BD34" s="18"/>
+      <c r="BE34" s="18"/>
+      <c r="BF34" s="14"/>
       <c r="BG34" s="10"/>
       <c r="BH34" s="10"/>
-      <c r="BI34" s="10"/>
-      <c r="BJ34" s="10"/>
-      <c r="BK34" s="14"/>
-      <c r="BL34" s="14"/>
-      <c r="BM34" s="14"/>
-      <c r="BN34" s="14"/>
-      <c r="BO34" s="15"/>
+      <c r="BI34" s="11"/>
+      <c r="BJ34" s="18"/>
+      <c r="BK34" s="18"/>
+      <c r="BL34" s="10"/>
+      <c r="BM34" s="18"/>
+      <c r="BN34" s="10"/>
+      <c r="BO34" s="10"/>
       <c r="BP34" s="10"/>
       <c r="BQ34" s="10"/>
       <c r="BR34" s="10"/>
       <c r="BS34" s="10"/>
     </row>
     <row r="35" spans="1:74" x14ac:dyDescent="0.45">
-      <c r="A35" s="11" t="s">
-        <v>26</v>
+      <c r="A35" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="14"/>
+      <c r="Z35" s="14"/>
       <c r="AA35" s="14"/>
-      <c r="AB35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AC35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AE35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF35" s="14">
-        <v>78</v>
-      </c>
-      <c r="AG35" s="14">
-        <v>78</v>
-      </c>
-      <c r="AH35" s="14">
-        <v>78</v>
-      </c>
-      <c r="AI35" s="14">
-        <v>78</v>
-      </c>
-      <c r="AJ35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK35" s="14">
-        <v>67</v>
-      </c>
-      <c r="AL35" s="14">
-        <v>67</v>
-      </c>
-      <c r="AM35" s="14">
-        <v>67</v>
-      </c>
-      <c r="AN35" s="14">
-        <v>67</v>
-      </c>
-      <c r="AO35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP35" s="14">
-        <v>56</v>
-      </c>
-      <c r="AQ35" s="14">
-        <v>56</v>
-      </c>
-      <c r="AR35" s="14">
-        <v>56</v>
-      </c>
-      <c r="AS35" s="14">
-        <v>56</v>
-      </c>
-      <c r="AT35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU35" s="14">
-        <v>45</v>
-      </c>
-      <c r="AV35" s="14">
-        <v>45</v>
-      </c>
-      <c r="AW35" s="14">
-        <v>45</v>
-      </c>
-      <c r="AX35" s="14">
-        <v>45</v>
-      </c>
-      <c r="AY35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ35" s="14">
-        <v>34</v>
-      </c>
-      <c r="BA35" s="14">
-        <v>34</v>
-      </c>
-      <c r="BB35" s="14">
-        <v>34</v>
-      </c>
-      <c r="BC35" s="14">
-        <v>34</v>
-      </c>
-      <c r="BD35" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BE35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AC35" s="14"/>
+      <c r="AD35" s="11"/>
+      <c r="AE35" s="11"/>
+      <c r="AF35" s="11"/>
+      <c r="AG35" s="14"/>
+      <c r="AH35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="14"/>
+      <c r="AK35" s="14"/>
+      <c r="AL35" s="14"/>
+      <c r="AM35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="14"/>
+      <c r="AP35" s="14"/>
+      <c r="AQ35" s="14"/>
+      <c r="AR35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="14"/>
+      <c r="AU35" s="14"/>
+      <c r="AV35" s="14"/>
+      <c r="AW35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY35" s="14"/>
+      <c r="AZ35" s="14"/>
+      <c r="BA35" s="14"/>
+      <c r="BB35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC35" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD35" s="14"/>
+      <c r="BE35" s="10"/>
       <c r="BF35" s="10"/>
       <c r="BG35" s="10"/>
       <c r="BH35" s="10"/>
       <c r="BI35" s="10"/>
       <c r="BJ35" s="10"/>
       <c r="BK35" s="10"/>
-      <c r="BL35" s="14"/>
-      <c r="BM35" s="14"/>
-      <c r="BN35" s="14"/>
-      <c r="BO35" s="14"/>
+      <c r="BL35" s="10"/>
+      <c r="BM35" s="10"/>
+      <c r="BN35" s="10"/>
+      <c r="BO35" s="10"/>
       <c r="BP35" s="10"/>
       <c r="BQ35" s="10"/>
       <c r="BR35" s="10"/>
@@ -6337,7 +6294,7 @@
     </row>
     <row r="36" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A36" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="14"/>
@@ -6364,19 +6321,23 @@
       <c r="X36" s="10"/>
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
+      <c r="AA36" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB36" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="AC36" s="14" t="s">
         <v>11</v>
       </c>
       <c r="AD36" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AE36" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF36" s="14" t="s">
-        <v>11</v>
+      <c r="AE36" s="14">
+        <v>78</v>
+      </c>
+      <c r="AF36" s="14">
+        <v>78</v>
       </c>
       <c r="AG36" s="14">
         <v>78</v>
@@ -6384,14 +6345,14 @@
       <c r="AH36" s="14">
         <v>78</v>
       </c>
-      <c r="AI36" s="14">
-        <v>78</v>
+      <c r="AI36" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AJ36" s="14">
-        <v>78</v>
-      </c>
-      <c r="AK36" s="14" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="AK36" s="14">
+        <v>67</v>
       </c>
       <c r="AL36" s="14">
         <v>67</v>
@@ -6399,14 +6360,14 @@
       <c r="AM36" s="14">
         <v>67</v>
       </c>
-      <c r="AN36" s="14">
-        <v>67</v>
+      <c r="AN36" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AO36" s="14">
-        <v>67</v>
-      </c>
-      <c r="AP36" s="14" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="AP36" s="14">
+        <v>56</v>
       </c>
       <c r="AQ36" s="14">
         <v>56</v>
@@ -6414,14 +6375,14 @@
       <c r="AR36" s="14">
         <v>56</v>
       </c>
-      <c r="AS36" s="14">
-        <v>56</v>
+      <c r="AS36" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AT36" s="14">
-        <v>56</v>
-      </c>
-      <c r="AU36" s="14" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="AU36" s="14">
+        <v>45</v>
       </c>
       <c r="AV36" s="14">
         <v>45</v>
@@ -6429,14 +6390,14 @@
       <c r="AW36" s="14">
         <v>45</v>
       </c>
-      <c r="AX36" s="14">
-        <v>45</v>
+      <c r="AX36" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AY36" s="14">
-        <v>45</v>
-      </c>
-      <c r="AZ36" s="14" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="AZ36" s="14">
+        <v>34</v>
       </c>
       <c r="BA36" s="14">
         <v>34</v>
@@ -6444,25 +6405,21 @@
       <c r="BB36" s="14">
         <v>34</v>
       </c>
-      <c r="BC36" s="14">
-        <v>34</v>
-      </c>
-      <c r="BD36" s="14">
-        <v>34</v>
-      </c>
-      <c r="BE36" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF36" s="14"/>
+      <c r="BC36" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD36" s="14"/>
+      <c r="BE36" s="10"/>
+      <c r="BF36" s="10"/>
       <c r="BG36" s="10"/>
       <c r="BH36" s="10"/>
       <c r="BI36" s="10"/>
       <c r="BJ36" s="10"/>
-      <c r="BK36" s="10"/>
-      <c r="BL36" s="10"/>
+      <c r="BK36" s="14"/>
+      <c r="BL36" s="14"/>
       <c r="BM36" s="14"/>
       <c r="BN36" s="14"/>
-      <c r="BO36" s="14"/>
+      <c r="BO36" s="15"/>
       <c r="BP36" s="10"/>
       <c r="BQ36" s="10"/>
       <c r="BR36" s="10"/>
@@ -6470,7 +6427,7 @@
     </row>
     <row r="37" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A37" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="14"/>
@@ -6498,19 +6455,23 @@
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
       <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="14"/>
+      <c r="AB37" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC37" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="AD37" s="14" t="s">
         <v>11</v>
       </c>
       <c r="AE37" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AF37" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AG37" s="14" t="s">
-        <v>11</v>
+      <c r="AF37" s="14">
+        <v>78</v>
+      </c>
+      <c r="AG37" s="14">
+        <v>78</v>
       </c>
       <c r="AH37" s="14">
         <v>78</v>
@@ -6518,14 +6479,14 @@
       <c r="AI37" s="14">
         <v>78</v>
       </c>
-      <c r="AJ37" s="14">
-        <v>78</v>
+      <c r="AJ37" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AK37" s="14">
-        <v>78</v>
-      </c>
-      <c r="AL37" s="14" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="AL37" s="14">
+        <v>67</v>
       </c>
       <c r="AM37" s="14">
         <v>67</v>
@@ -6533,14 +6494,14 @@
       <c r="AN37" s="14">
         <v>67</v>
       </c>
-      <c r="AO37" s="14">
-        <v>67</v>
+      <c r="AO37" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AP37" s="14">
-        <v>67</v>
-      </c>
-      <c r="AQ37" s="14" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="AQ37" s="14">
+        <v>56</v>
       </c>
       <c r="AR37" s="14">
         <v>56</v>
@@ -6548,14 +6509,14 @@
       <c r="AS37" s="14">
         <v>56</v>
       </c>
-      <c r="AT37" s="14">
-        <v>56</v>
+      <c r="AT37" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AU37" s="14">
-        <v>56</v>
-      </c>
-      <c r="AV37" s="14" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="AV37" s="14">
+        <v>45</v>
       </c>
       <c r="AW37" s="14">
         <v>45</v>
@@ -6563,14 +6524,14 @@
       <c r="AX37" s="14">
         <v>45</v>
       </c>
-      <c r="AY37" s="14">
-        <v>45</v>
+      <c r="AY37" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AZ37" s="14">
-        <v>45</v>
-      </c>
-      <c r="BA37" s="14" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="BA37" s="14">
+        <v>34</v>
       </c>
       <c r="BB37" s="14">
         <v>34</v>
@@ -6578,22 +6539,18 @@
       <c r="BC37" s="14">
         <v>34</v>
       </c>
-      <c r="BD37" s="14">
-        <v>34</v>
-      </c>
-      <c r="BE37" s="14">
-        <v>34</v>
-      </c>
-      <c r="BF37" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG37" s="14"/>
+      <c r="BD37" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE37" s="14"/>
+      <c r="BF37" s="10"/>
+      <c r="BG37" s="10"/>
       <c r="BH37" s="10"/>
       <c r="BI37" s="10"/>
       <c r="BJ37" s="10"/>
       <c r="BK37" s="10"/>
-      <c r="BL37" s="10"/>
-      <c r="BM37" s="10"/>
+      <c r="BL37" s="14"/>
+      <c r="BM37" s="14"/>
       <c r="BN37" s="14"/>
       <c r="BO37" s="14"/>
       <c r="BP37" s="10"/>
@@ -6603,13 +6560,13 @@
     </row>
     <row r="38" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A38" s="11" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
       <c r="G38" s="10"/>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
@@ -6630,21 +6587,25 @@
       <c r="X38" s="10"/>
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
-      <c r="AA38" s="11"/>
-      <c r="AB38" s="11"/>
-      <c r="AC38" s="11"/>
-      <c r="AD38" s="11"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AD38" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="AE38" s="14" t="s">
         <v>11</v>
       </c>
       <c r="AF38" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AG38" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AH38" s="14" t="s">
-        <v>11</v>
+      <c r="AG38" s="14">
+        <v>78</v>
+      </c>
+      <c r="AH38" s="14">
+        <v>78</v>
       </c>
       <c r="AI38" s="14">
         <v>78</v>
@@ -6652,14 +6613,14 @@
       <c r="AJ38" s="14">
         <v>78</v>
       </c>
-      <c r="AK38" s="14">
-        <v>78</v>
+      <c r="AK38" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AL38" s="14">
-        <v>78</v>
-      </c>
-      <c r="AM38" s="14" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="AM38" s="14">
+        <v>67</v>
       </c>
       <c r="AN38" s="14">
         <v>67</v>
@@ -6667,14 +6628,14 @@
       <c r="AO38" s="14">
         <v>67</v>
       </c>
-      <c r="AP38" s="14">
-        <v>67</v>
+      <c r="AP38" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AQ38" s="14">
-        <v>67</v>
-      </c>
-      <c r="AR38" s="14" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="AR38" s="14">
+        <v>56</v>
       </c>
       <c r="AS38" s="14">
         <v>56</v>
@@ -6682,14 +6643,14 @@
       <c r="AT38" s="14">
         <v>56</v>
       </c>
-      <c r="AU38" s="14">
-        <v>56</v>
+      <c r="AU38" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AV38" s="14">
-        <v>56</v>
-      </c>
-      <c r="AW38" s="14" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="AW38" s="14">
+        <v>45</v>
       </c>
       <c r="AX38" s="14">
         <v>45</v>
@@ -6697,14 +6658,14 @@
       <c r="AY38" s="14">
         <v>45</v>
       </c>
-      <c r="AZ38" s="14">
-        <v>45</v>
+      <c r="AZ38" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="BA38" s="14">
-        <v>45</v>
-      </c>
-      <c r="BB38" s="14" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="BB38" s="14">
+        <v>34</v>
       </c>
       <c r="BC38" s="14">
         <v>34</v>
@@ -6712,22 +6673,18 @@
       <c r="BD38" s="14">
         <v>34</v>
       </c>
-      <c r="BE38" s="14">
-        <v>34</v>
-      </c>
-      <c r="BF38" s="14">
-        <v>34</v>
-      </c>
-      <c r="BG38" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BH38" s="14"/>
+      <c r="BE38" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF38" s="14"/>
+      <c r="BG38" s="10"/>
+      <c r="BH38" s="10"/>
       <c r="BI38" s="10"/>
       <c r="BJ38" s="10"/>
       <c r="BK38" s="10"/>
       <c r="BL38" s="10"/>
-      <c r="BM38" s="10"/>
-      <c r="BN38" s="10"/>
+      <c r="BM38" s="14"/>
+      <c r="BN38" s="14"/>
       <c r="BO38" s="14"/>
       <c r="BP38" s="10"/>
       <c r="BQ38" s="10"/>
@@ -6736,13 +6693,13 @@
     </row>
     <row r="39" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A39" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
       <c r="G39" s="10"/>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
@@ -6763,22 +6720,26 @@
       <c r="X39" s="10"/>
       <c r="Y39" s="10"/>
       <c r="Z39" s="10"/>
-      <c r="AA39" s="10"/>
-      <c r="AB39" s="10"/>
-      <c r="AC39" s="10"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="14"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AC39" s="14"/>
+      <c r="AD39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE39" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="AF39" s="14" t="s">
         <v>11</v>
       </c>
       <c r="AG39" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AH39" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AI39" s="14" t="s">
-        <v>11</v>
+      <c r="AH39" s="14">
+        <v>78</v>
+      </c>
+      <c r="AI39" s="14">
+        <v>78</v>
       </c>
       <c r="AJ39" s="14">
         <v>78</v>
@@ -6786,14 +6747,14 @@
       <c r="AK39" s="14">
         <v>78</v>
       </c>
-      <c r="AL39" s="14">
-        <v>78</v>
+      <c r="AL39" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AM39" s="14">
-        <v>78</v>
-      </c>
-      <c r="AN39" s="14" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="AN39" s="14">
+        <v>67</v>
       </c>
       <c r="AO39" s="14">
         <v>67</v>
@@ -6801,14 +6762,14 @@
       <c r="AP39" s="14">
         <v>67</v>
       </c>
-      <c r="AQ39" s="14">
-        <v>67</v>
+      <c r="AQ39" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AR39" s="14">
-        <v>67</v>
-      </c>
-      <c r="AS39" s="14" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="AS39" s="14">
+        <v>56</v>
       </c>
       <c r="AT39" s="14">
         <v>56</v>
@@ -6816,14 +6777,14 @@
       <c r="AU39" s="14">
         <v>56</v>
       </c>
-      <c r="AV39" s="14">
-        <v>56</v>
+      <c r="AV39" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AW39" s="14">
-        <v>56</v>
-      </c>
-      <c r="AX39" s="14" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="AX39" s="14">
+        <v>45</v>
       </c>
       <c r="AY39" s="14">
         <v>45</v>
@@ -6831,14 +6792,14 @@
       <c r="AZ39" s="14">
         <v>45</v>
       </c>
-      <c r="BA39" s="14">
-        <v>45</v>
+      <c r="BA39" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="BB39" s="14">
-        <v>45</v>
-      </c>
-      <c r="BC39" s="14" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="BC39" s="14">
+        <v>34</v>
       </c>
       <c r="BD39" s="14">
         <v>34</v>
@@ -6846,22 +6807,18 @@
       <c r="BE39" s="14">
         <v>34</v>
       </c>
-      <c r="BF39" s="14">
-        <v>34</v>
-      </c>
-      <c r="BG39" s="14">
-        <v>34</v>
-      </c>
-      <c r="BH39" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI39" s="14"/>
+      <c r="BF39" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG39" s="14"/>
+      <c r="BH39" s="10"/>
+      <c r="BI39" s="10"/>
       <c r="BJ39" s="10"/>
       <c r="BK39" s="10"/>
       <c r="BL39" s="10"/>
       <c r="BM39" s="10"/>
-      <c r="BN39" s="10"/>
-      <c r="BO39" s="10"/>
+      <c r="BN39" s="14"/>
+      <c r="BO39" s="14"/>
       <c r="BP39" s="10"/>
       <c r="BQ39" s="10"/>
       <c r="BR39" s="10"/>
@@ -6869,13 +6826,13 @@
     </row>
     <row r="40" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A40" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
       <c r="G40" s="10"/>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
@@ -6896,23 +6853,27 @@
       <c r="X40" s="10"/>
       <c r="Y40" s="10"/>
       <c r="Z40" s="10"/>
-      <c r="AA40" s="10"/>
-      <c r="AB40" s="10"/>
-      <c r="AC40" s="10"/>
-      <c r="AD40" s="10"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
+      <c r="AA40" s="11"/>
+      <c r="AB40" s="11"/>
+      <c r="AC40" s="11"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF40" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="AG40" s="14" t="s">
         <v>11</v>
       </c>
       <c r="AH40" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AI40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AJ40" s="14" t="s">
-        <v>11</v>
+      <c r="AI40" s="14">
+        <v>78</v>
+      </c>
+      <c r="AJ40" s="14">
+        <v>78</v>
       </c>
       <c r="AK40" s="14">
         <v>78</v>
@@ -6920,14 +6881,14 @@
       <c r="AL40" s="14">
         <v>78</v>
       </c>
-      <c r="AM40" s="14">
-        <v>78</v>
+      <c r="AM40" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AN40" s="14">
-        <v>78</v>
-      </c>
-      <c r="AO40" s="14" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="AO40" s="14">
+        <v>67</v>
       </c>
       <c r="AP40" s="14">
         <v>67</v>
@@ -6935,14 +6896,14 @@
       <c r="AQ40" s="14">
         <v>67</v>
       </c>
-      <c r="AR40" s="14">
-        <v>67</v>
+      <c r="AR40" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AS40" s="14">
-        <v>67</v>
-      </c>
-      <c r="AT40" s="14" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="AT40" s="14">
+        <v>56</v>
       </c>
       <c r="AU40" s="14">
         <v>56</v>
@@ -6950,14 +6911,14 @@
       <c r="AV40" s="14">
         <v>56</v>
       </c>
-      <c r="AW40" s="14">
-        <v>56</v>
+      <c r="AW40" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AX40" s="14">
-        <v>56</v>
-      </c>
-      <c r="AY40" s="14" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="AY40" s="14">
+        <v>45</v>
       </c>
       <c r="AZ40" s="14">
         <v>45</v>
@@ -6965,14 +6926,14 @@
       <c r="BA40" s="14">
         <v>45</v>
       </c>
-      <c r="BB40" s="14">
-        <v>45</v>
+      <c r="BB40" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="BC40" s="14">
-        <v>45</v>
-      </c>
-      <c r="BD40" s="14" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="BD40" s="14">
+        <v>34</v>
       </c>
       <c r="BE40" s="14">
         <v>34</v>
@@ -6980,21 +6941,17 @@
       <c r="BF40" s="14">
         <v>34</v>
       </c>
-      <c r="BG40" s="14">
-        <v>34</v>
-      </c>
-      <c r="BH40" s="14">
-        <v>34</v>
-      </c>
-      <c r="BI40" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ40" s="14"/>
+      <c r="BG40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BH40" s="14"/>
+      <c r="BI40" s="10"/>
+      <c r="BJ40" s="10"/>
       <c r="BK40" s="10"/>
       <c r="BL40" s="10"/>
       <c r="BM40" s="10"/>
       <c r="BN40" s="10"/>
-      <c r="BO40" s="10"/>
+      <c r="BO40" s="14"/>
       <c r="BP40" s="10"/>
       <c r="BQ40" s="10"/>
       <c r="BR40" s="10"/>
@@ -7002,7 +6959,7 @@
     </row>
     <row r="41" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A41" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B41" s="10"/>
       <c r="C41" s="10"/>
@@ -7034,19 +6991,23 @@
       <c r="AC41" s="10"/>
       <c r="AD41" s="10"/>
       <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
+      <c r="AF41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG41" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="AH41" s="14" t="s">
         <v>11</v>
       </c>
       <c r="AI41" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AJ41" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK41" s="14" t="s">
-        <v>11</v>
+      <c r="AJ41" s="14">
+        <v>78</v>
+      </c>
+      <c r="AK41" s="14">
+        <v>78</v>
       </c>
       <c r="AL41" s="14">
         <v>78</v>
@@ -7054,14 +7015,14 @@
       <c r="AM41" s="14">
         <v>78</v>
       </c>
-      <c r="AN41" s="14">
-        <v>78</v>
+      <c r="AN41" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AO41" s="14">
-        <v>78</v>
-      </c>
-      <c r="AP41" s="14" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="AP41" s="14">
+        <v>67</v>
       </c>
       <c r="AQ41" s="14">
         <v>67</v>
@@ -7069,14 +7030,14 @@
       <c r="AR41" s="14">
         <v>67</v>
       </c>
-      <c r="AS41" s="14">
-        <v>67</v>
+      <c r="AS41" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AT41" s="14">
-        <v>67</v>
-      </c>
-      <c r="AU41" s="14" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="AU41" s="14">
+        <v>56</v>
       </c>
       <c r="AV41" s="14">
         <v>56</v>
@@ -7084,14 +7045,14 @@
       <c r="AW41" s="14">
         <v>56</v>
       </c>
-      <c r="AX41" s="14">
-        <v>56</v>
+      <c r="AX41" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AY41" s="14">
-        <v>56</v>
-      </c>
-      <c r="AZ41" s="14" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="AZ41" s="14">
+        <v>45</v>
       </c>
       <c r="BA41" s="14">
         <v>45</v>
@@ -7099,14 +7060,14 @@
       <c r="BB41" s="14">
         <v>45</v>
       </c>
-      <c r="BC41" s="14">
-        <v>45</v>
+      <c r="BC41" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="BD41" s="14">
-        <v>45</v>
-      </c>
-      <c r="BE41" s="14" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="BE41" s="14">
+        <v>34</v>
       </c>
       <c r="BF41" s="14">
         <v>34</v>
@@ -7114,16 +7075,12 @@
       <c r="BG41" s="14">
         <v>34</v>
       </c>
-      <c r="BH41" s="14">
-        <v>34</v>
-      </c>
-      <c r="BI41" s="14">
-        <v>34</v>
-      </c>
-      <c r="BJ41" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BK41" s="14"/>
+      <c r="BH41" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI41" s="14"/>
+      <c r="BJ41" s="10"/>
+      <c r="BK41" s="10"/>
       <c r="BL41" s="10"/>
       <c r="BM41" s="10"/>
       <c r="BN41" s="10"/>
@@ -7134,112 +7091,130 @@
       <c r="BS41" s="10"/>
     </row>
     <row r="42" spans="1:74" x14ac:dyDescent="0.45">
-      <c r="A42" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-      <c r="Y42" s="11"/>
-      <c r="Z42" s="11"/>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="14"/>
-      <c r="AC42" s="14"/>
-      <c r="AD42" s="14"/>
+      <c r="A42" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
       <c r="AE42" s="14"/>
       <c r="AF42" s="14"/>
-      <c r="AG42" s="14"/>
-      <c r="AH42" s="14"/>
-      <c r="AI42" s="11"/>
-      <c r="AJ42" s="11"/>
-      <c r="AK42" s="11"/>
-      <c r="AL42" s="11"/>
-      <c r="AM42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AO42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AP42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AQ42" s="14"/>
-      <c r="AR42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AV42" s="14"/>
-      <c r="AW42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA42" s="14"/>
-      <c r="BB42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF42" s="14"/>
-      <c r="BG42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ42" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK42" s="18"/>
-      <c r="BL42" s="14"/>
+      <c r="AG42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AH42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK42" s="14">
+        <v>78</v>
+      </c>
+      <c r="AL42" s="14">
+        <v>78</v>
+      </c>
+      <c r="AM42" s="14">
+        <v>78</v>
+      </c>
+      <c r="AN42" s="14">
+        <v>78</v>
+      </c>
+      <c r="AO42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP42" s="14">
+        <v>67</v>
+      </c>
+      <c r="AQ42" s="14">
+        <v>67</v>
+      </c>
+      <c r="AR42" s="14">
+        <v>67</v>
+      </c>
+      <c r="AS42" s="14">
+        <v>67</v>
+      </c>
+      <c r="AT42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU42" s="14">
+        <v>56</v>
+      </c>
+      <c r="AV42" s="14">
+        <v>56</v>
+      </c>
+      <c r="AW42" s="14">
+        <v>56</v>
+      </c>
+      <c r="AX42" s="14">
+        <v>56</v>
+      </c>
+      <c r="AY42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ42" s="14">
+        <v>45</v>
+      </c>
+      <c r="BA42" s="14">
+        <v>45</v>
+      </c>
+      <c r="BB42" s="14">
+        <v>45</v>
+      </c>
+      <c r="BC42" s="14">
+        <v>45</v>
+      </c>
+      <c r="BD42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE42" s="14">
+        <v>34</v>
+      </c>
+      <c r="BF42" s="14">
+        <v>34</v>
+      </c>
+      <c r="BG42" s="14">
+        <v>34</v>
+      </c>
+      <c r="BH42" s="14">
+        <v>34</v>
+      </c>
+      <c r="BI42" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ42" s="14"/>
+      <c r="BK42" s="10"/>
+      <c r="BL42" s="10"/>
       <c r="BM42" s="10"/>
       <c r="BN42" s="10"/>
       <c r="BO42" s="10"/>
@@ -7249,148 +7224,153 @@
       <c r="BS42" s="10"/>
     </row>
     <row r="43" spans="1:74" x14ac:dyDescent="0.45">
-      <c r="A43" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="11"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-      <c r="R43" s="11"/>
-      <c r="S43" s="11"/>
-      <c r="T43" s="11"/>
-      <c r="U43" s="11"/>
-      <c r="V43" s="11"/>
-      <c r="W43" s="11"/>
-      <c r="X43" s="11"/>
-      <c r="Y43" s="11"/>
-      <c r="Z43" s="11"/>
-      <c r="AA43" s="11"/>
-      <c r="AB43" s="11"/>
-      <c r="AC43" s="11"/>
-      <c r="AD43" s="11"/>
-      <c r="AE43" s="11"/>
-      <c r="AF43" s="11"/>
-      <c r="AG43" s="11"/>
-      <c r="AH43" s="11"/>
-      <c r="AI43" s="11"/>
-      <c r="AJ43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AK43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO43" s="13">
-        <v>78</v>
-      </c>
-      <c r="AP43" s="13">
-        <v>78</v>
-      </c>
-      <c r="AQ43" s="13">
-        <v>78</v>
-      </c>
-      <c r="AR43" s="13">
-        <v>78</v>
-      </c>
-      <c r="AS43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT43" s="13">
-        <v>67</v>
-      </c>
-      <c r="AU43" s="13">
-        <v>67</v>
-      </c>
-      <c r="AV43" s="13">
-        <v>67</v>
-      </c>
-      <c r="AW43" s="13">
-        <v>67</v>
-      </c>
-      <c r="AX43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY43" s="13">
-        <v>56</v>
-      </c>
-      <c r="AZ43" s="13">
-        <v>56</v>
-      </c>
-      <c r="BA43" s="13">
-        <v>56</v>
-      </c>
-      <c r="BB43" s="13">
-        <v>56</v>
-      </c>
-      <c r="BC43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD43" s="13">
-        <v>45</v>
-      </c>
-      <c r="BE43" s="13">
-        <v>45</v>
-      </c>
-      <c r="BF43" s="13">
-        <v>45</v>
-      </c>
-      <c r="BG43" s="13">
-        <v>45</v>
-      </c>
-      <c r="BH43" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI43" s="14"/>
-      <c r="BJ43" s="14"/>
+      <c r="A43" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AI43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL43" s="14">
+        <v>78</v>
+      </c>
+      <c r="AM43" s="14">
+        <v>78</v>
+      </c>
+      <c r="AN43" s="14">
+        <v>78</v>
+      </c>
+      <c r="AO43" s="14">
+        <v>78</v>
+      </c>
+      <c r="AP43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ43" s="14">
+        <v>67</v>
+      </c>
+      <c r="AR43" s="14">
+        <v>67</v>
+      </c>
+      <c r="AS43" s="14">
+        <v>67</v>
+      </c>
+      <c r="AT43" s="14">
+        <v>67</v>
+      </c>
+      <c r="AU43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV43" s="14">
+        <v>56</v>
+      </c>
+      <c r="AW43" s="14">
+        <v>56</v>
+      </c>
+      <c r="AX43" s="14">
+        <v>56</v>
+      </c>
+      <c r="AY43" s="14">
+        <v>56</v>
+      </c>
+      <c r="AZ43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA43" s="14">
+        <v>45</v>
+      </c>
+      <c r="BB43" s="14">
+        <v>45</v>
+      </c>
+      <c r="BC43" s="14">
+        <v>45</v>
+      </c>
+      <c r="BD43" s="14">
+        <v>45</v>
+      </c>
+      <c r="BE43" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF43" s="14">
+        <v>34</v>
+      </c>
+      <c r="BG43" s="14">
+        <v>34</v>
+      </c>
+      <c r="BH43" s="14">
+        <v>34</v>
+      </c>
+      <c r="BI43" s="14">
+        <v>34</v>
+      </c>
+      <c r="BJ43" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="BK43" s="14"/>
-      <c r="BL43" s="14"/>
-      <c r="BM43" s="14"/>
-      <c r="BN43" s="11"/>
-      <c r="BO43" s="14"/>
-      <c r="BP43" s="14"/>
-      <c r="BQ43" s="14"/>
-      <c r="BR43" s="11"/>
-      <c r="BS43" s="14"/>
-      <c r="BT43" s="4"/>
-      <c r="BU43" s="5"/>
-      <c r="BV43" s="4"/>
+      <c r="BL43" s="10"/>
+      <c r="BM43" s="10"/>
+      <c r="BN43" s="10"/>
+      <c r="BO43" s="10"/>
+      <c r="BP43" s="10"/>
+      <c r="BQ43" s="10"/>
+      <c r="BR43" s="10"/>
+      <c r="BS43" s="10"/>
     </row>
     <row r="44" spans="1:74" x14ac:dyDescent="0.45">
-      <c r="A44" s="19" t="s">
-        <v>46</v>
+      <c r="A44" s="23" t="s">
+        <v>69</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
@@ -7403,177 +7383,186 @@
       <c r="V44" s="11"/>
       <c r="W44" s="11"/>
       <c r="X44" s="11"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
+      <c r="Y44" s="11"/>
+      <c r="Z44" s="11"/>
       <c r="AA44" s="14"/>
       <c r="AB44" s="14"/>
       <c r="AC44" s="14"/>
-      <c r="AD44" s="11"/>
-      <c r="AE44" s="11"/>
-      <c r="AF44" s="11"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="14"/>
       <c r="AG44" s="14"/>
-      <c r="AH44" s="14"/>
-      <c r="AI44" s="14"/>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="14"/>
+      <c r="AH44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="24" t="s">
+        <v>1</v>
+      </c>
       <c r="AL44" s="14"/>
-      <c r="AM44" s="14"/>
-      <c r="AN44" s="14"/>
-      <c r="AO44" s="14"/>
-      <c r="AP44" s="14"/>
+      <c r="AM44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="24" t="s">
+        <v>1</v>
+      </c>
       <c r="AQ44" s="14"/>
-      <c r="AR44" s="14"/>
-      <c r="AS44" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT44" s="14"/>
-      <c r="AU44" s="14"/>
+      <c r="AR44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU44" s="24" t="s">
+        <v>1</v>
+      </c>
       <c r="AV44" s="14"/>
-      <c r="AW44" s="14"/>
-      <c r="AX44" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY44" s="14"/>
-      <c r="AZ44" s="14"/>
+      <c r="AW44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ44" s="24" t="s">
+        <v>1</v>
+      </c>
       <c r="BA44" s="14"/>
-      <c r="BB44" s="14"/>
-      <c r="BC44" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD44" s="14"/>
-      <c r="BE44" s="10"/>
-      <c r="BF44" s="10"/>
-      <c r="BG44" s="10"/>
-      <c r="BH44" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI44" s="10"/>
-      <c r="BJ44" s="10"/>
-      <c r="BK44" s="10"/>
-      <c r="BL44" s="10"/>
-      <c r="BM44" s="10"/>
-      <c r="BN44" s="10"/>
-      <c r="BO44" s="10"/>
-      <c r="BP44" s="10"/>
-      <c r="BQ44" s="10"/>
-      <c r="BR44" s="10"/>
-      <c r="BS44" s="10"/>
+      <c r="BB44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD44" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE44" s="24" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:74" x14ac:dyDescent="0.45">
-      <c r="A45" s="11" t="s">
-        <v>47</v>
+      <c r="A45" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="10"/>
-      <c r="AB45" s="10"/>
-      <c r="AC45" s="10"/>
-      <c r="AD45" s="10"/>
-      <c r="AE45" s="10"/>
-      <c r="AF45" s="10"/>
-      <c r="AG45" s="10"/>
-      <c r="AH45" s="10"/>
-      <c r="AI45" s="10"/>
-      <c r="AJ45" s="10"/>
-      <c r="AK45" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL45" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM45" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN45" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO45" s="14">
-        <v>78</v>
-      </c>
-      <c r="AP45" s="14">
-        <v>78</v>
-      </c>
-      <c r="AQ45" s="14">
-        <v>78</v>
-      </c>
-      <c r="AR45" s="14">
-        <v>78</v>
-      </c>
-      <c r="AS45" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT45" s="14">
-        <v>67</v>
-      </c>
-      <c r="AU45" s="14">
-        <v>67</v>
-      </c>
-      <c r="AV45" s="14">
-        <v>67</v>
-      </c>
-      <c r="AW45" s="14">
-        <v>67</v>
-      </c>
-      <c r="AX45" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY45" s="14">
-        <v>56</v>
-      </c>
-      <c r="AZ45" s="14">
-        <v>56</v>
-      </c>
-      <c r="BA45" s="14">
-        <v>56</v>
-      </c>
-      <c r="BB45" s="14">
-        <v>56</v>
-      </c>
-      <c r="BC45" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BD45" s="14">
-        <v>45</v>
-      </c>
-      <c r="BE45" s="14">
-        <v>45</v>
-      </c>
-      <c r="BF45" s="14">
-        <v>45</v>
-      </c>
-      <c r="BG45" s="14">
-        <v>45</v>
-      </c>
-      <c r="BH45" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BI45" s="10"/>
-      <c r="BJ45" s="10"/>
-      <c r="BK45" s="10"/>
-      <c r="BL45" s="10"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
+      <c r="R45" s="11"/>
+      <c r="S45" s="11"/>
+      <c r="T45" s="11"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
+      <c r="X45" s="11"/>
+      <c r="Y45" s="11"/>
+      <c r="Z45" s="11"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="11"/>
+      <c r="AJ45" s="11"/>
+      <c r="AK45" s="11"/>
+      <c r="AL45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="14"/>
+      <c r="AQ45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU45" s="14"/>
+      <c r="AV45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ45" s="14"/>
+      <c r="BA45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE45" s="14"/>
+      <c r="BF45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI45" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BK45" s="18"/>
+      <c r="BL45" s="14"/>
       <c r="BM45" s="10"/>
       <c r="BN45" s="10"/>
       <c r="BO45" s="10"/>
@@ -7581,243 +7570,208 @@
       <c r="BQ45" s="10"/>
       <c r="BR45" s="10"/>
       <c r="BS45" s="10"/>
+      <c r="BT45" s="4"/>
+      <c r="BU45" s="5"/>
+      <c r="BV45" s="4"/>
     </row>
     <row r="46" spans="1:74" x14ac:dyDescent="0.45">
-      <c r="A46" s="11" t="s">
-        <v>48</v>
+      <c r="A46" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
-      <c r="AA46" s="10"/>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
-      <c r="AD46" s="10"/>
-      <c r="AE46" s="10"/>
-      <c r="AF46" s="10"/>
-      <c r="AG46" s="10"/>
-      <c r="AH46" s="10"/>
-      <c r="AI46" s="10"/>
-      <c r="AJ46" s="10"/>
-      <c r="AK46" s="14"/>
-      <c r="AL46" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AM46" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN46" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO46" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP46" s="14">
-        <v>78</v>
-      </c>
-      <c r="AQ46" s="14">
-        <v>78</v>
-      </c>
-      <c r="AR46" s="14">
-        <v>78</v>
-      </c>
-      <c r="AS46" s="14">
-        <v>78</v>
-      </c>
-      <c r="AT46" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU46" s="14">
-        <v>67</v>
-      </c>
-      <c r="AV46" s="14">
-        <v>67</v>
-      </c>
-      <c r="AW46" s="14">
-        <v>67</v>
-      </c>
-      <c r="AX46" s="14">
-        <v>67</v>
-      </c>
-      <c r="AY46" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ46" s="14">
-        <v>56</v>
-      </c>
-      <c r="BA46" s="14">
-        <v>56</v>
-      </c>
-      <c r="BB46" s="14">
-        <v>56</v>
-      </c>
-      <c r="BC46" s="14">
-        <v>56</v>
-      </c>
-      <c r="BD46" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BE46" s="14">
-        <v>45</v>
-      </c>
-      <c r="BF46" s="14">
-        <v>45</v>
-      </c>
-      <c r="BG46" s="14">
-        <v>45</v>
-      </c>
-      <c r="BH46" s="14">
-        <v>45</v>
-      </c>
-      <c r="BI46" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BJ46" s="10"/>
-      <c r="BK46" s="10"/>
-      <c r="BL46" s="10"/>
-      <c r="BM46" s="10"/>
-      <c r="BN46" s="10"/>
-      <c r="BO46" s="10"/>
-      <c r="BP46" s="10"/>
-      <c r="BQ46" s="10"/>
-      <c r="BR46" s="10"/>
-      <c r="BS46" s="10"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
+      <c r="R46" s="11"/>
+      <c r="S46" s="11"/>
+      <c r="T46" s="11"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
+      <c r="X46" s="11"/>
+      <c r="Y46" s="11"/>
+      <c r="Z46" s="11"/>
+      <c r="AA46" s="11"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="11"/>
+      <c r="AF46" s="11"/>
+      <c r="AG46" s="11"/>
+      <c r="AH46" s="11"/>
+      <c r="AI46" s="11"/>
+      <c r="AJ46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AK46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO46" s="13">
+        <v>78</v>
+      </c>
+      <c r="AP46" s="13">
+        <v>78</v>
+      </c>
+      <c r="AQ46" s="13">
+        <v>78</v>
+      </c>
+      <c r="AR46" s="13">
+        <v>78</v>
+      </c>
+      <c r="AS46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT46" s="13">
+        <v>67</v>
+      </c>
+      <c r="AU46" s="13">
+        <v>67</v>
+      </c>
+      <c r="AV46" s="13">
+        <v>67</v>
+      </c>
+      <c r="AW46" s="13">
+        <v>67</v>
+      </c>
+      <c r="AX46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY46" s="13">
+        <v>56</v>
+      </c>
+      <c r="AZ46" s="13">
+        <v>56</v>
+      </c>
+      <c r="BA46" s="13">
+        <v>56</v>
+      </c>
+      <c r="BB46" s="13">
+        <v>56</v>
+      </c>
+      <c r="BC46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD46" s="13">
+        <v>45</v>
+      </c>
+      <c r="BE46" s="13">
+        <v>45</v>
+      </c>
+      <c r="BF46" s="13">
+        <v>45</v>
+      </c>
+      <c r="BG46" s="13">
+        <v>45</v>
+      </c>
+      <c r="BH46" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI46" s="14"/>
+      <c r="BJ46" s="14"/>
+      <c r="BK46" s="14"/>
+      <c r="BL46" s="14"/>
+      <c r="BM46" s="14"/>
+      <c r="BN46" s="11"/>
+      <c r="BO46" s="14"/>
+      <c r="BP46" s="14"/>
+      <c r="BQ46" s="14"/>
+      <c r="BR46" s="11"/>
+      <c r="BS46" s="14"/>
     </row>
     <row r="47" spans="1:74" x14ac:dyDescent="0.45">
-      <c r="A47" s="11" t="s">
-        <v>49</v>
+      <c r="A47" s="19" t="s">
+        <v>43</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="10"/>
-      <c r="AB47" s="10"/>
-      <c r="AC47" s="10"/>
-      <c r="AD47" s="10"/>
-      <c r="AE47" s="10"/>
-      <c r="AF47" s="10"/>
-      <c r="AG47" s="10"/>
-      <c r="AH47" s="10"/>
-      <c r="AI47" s="10"/>
-      <c r="AJ47" s="10"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
+      <c r="X47" s="11"/>
+      <c r="Y47" s="14"/>
+      <c r="Z47" s="14"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AC47" s="14"/>
+      <c r="AD47" s="11"/>
+      <c r="AE47" s="11"/>
+      <c r="AF47" s="11"/>
+      <c r="AG47" s="14"/>
+      <c r="AH47" s="14"/>
+      <c r="AI47" s="14"/>
+      <c r="AJ47" s="14"/>
       <c r="AK47" s="14"/>
       <c r="AL47" s="14"/>
-      <c r="AM47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AO47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ47" s="14">
-        <v>78</v>
-      </c>
-      <c r="AR47" s="14">
-        <v>78</v>
-      </c>
-      <c r="AS47" s="14">
-        <v>78</v>
-      </c>
-      <c r="AT47" s="14">
-        <v>78</v>
-      </c>
-      <c r="AU47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV47" s="14">
-        <v>67</v>
-      </c>
-      <c r="AW47" s="14">
-        <v>67</v>
-      </c>
-      <c r="AX47" s="14">
-        <v>67</v>
-      </c>
-      <c r="AY47" s="14">
-        <v>67</v>
-      </c>
-      <c r="AZ47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BA47" s="14">
-        <v>56</v>
-      </c>
-      <c r="BB47" s="14">
-        <v>56</v>
-      </c>
-      <c r="BC47" s="14">
-        <v>56</v>
-      </c>
-      <c r="BD47" s="14">
-        <v>56</v>
-      </c>
-      <c r="BE47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="BF47" s="14">
-        <v>45</v>
-      </c>
-      <c r="BG47" s="14">
-        <v>45</v>
-      </c>
-      <c r="BH47" s="14">
-        <v>45</v>
-      </c>
-      <c r="BI47" s="14">
-        <v>45</v>
-      </c>
-      <c r="BJ47" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="AM47" s="14"/>
+      <c r="AN47" s="14"/>
+      <c r="AO47" s="14"/>
+      <c r="AP47" s="14"/>
+      <c r="AQ47" s="14"/>
+      <c r="AR47" s="14"/>
+      <c r="AS47" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT47" s="14"/>
+      <c r="AU47" s="14"/>
+      <c r="AV47" s="14"/>
+      <c r="AW47" s="14"/>
+      <c r="AX47" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY47" s="14"/>
+      <c r="AZ47" s="14"/>
+      <c r="BA47" s="14"/>
+      <c r="BB47" s="14"/>
+      <c r="BC47" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD47" s="14"/>
+      <c r="BE47" s="10"/>
+      <c r="BF47" s="10"/>
+      <c r="BG47" s="10"/>
+      <c r="BH47" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI47" s="10"/>
+      <c r="BJ47" s="10"/>
       <c r="BK47" s="10"/>
       <c r="BL47" s="10"/>
       <c r="BM47" s="10"/>
@@ -7830,7 +7784,7 @@
     </row>
     <row r="48" spans="1:74" x14ac:dyDescent="0.45">
       <c r="A48" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="14"/>
@@ -7867,81 +7821,81 @@
       <c r="AH48" s="10"/>
       <c r="AI48" s="10"/>
       <c r="AJ48" s="10"/>
-      <c r="AK48" s="14"/>
-      <c r="AL48" s="14"/>
-      <c r="AM48" s="14"/>
+      <c r="AK48" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL48" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM48" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="AN48" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AO48" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AP48" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ48" s="14" t="s">
-        <v>11</v>
+      <c r="AO48" s="14">
+        <v>78</v>
+      </c>
+      <c r="AP48" s="14">
+        <v>78</v>
+      </c>
+      <c r="AQ48" s="14">
+        <v>78</v>
       </c>
       <c r="AR48" s="14">
         <v>78</v>
       </c>
-      <c r="AS48" s="14">
-        <v>78</v>
+      <c r="AS48" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AT48" s="14">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AU48" s="14">
-        <v>78</v>
-      </c>
-      <c r="AV48" s="14" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="AV48" s="14">
+        <v>67</v>
       </c>
       <c r="AW48" s="14">
         <v>67</v>
       </c>
-      <c r="AX48" s="14">
-        <v>67</v>
+      <c r="AX48" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AY48" s="14">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="AZ48" s="14">
-        <v>67</v>
-      </c>
-      <c r="BA48" s="14" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="BA48" s="14">
+        <v>56</v>
       </c>
       <c r="BB48" s="14">
         <v>56</v>
       </c>
-      <c r="BC48" s="14">
-        <v>56</v>
+      <c r="BC48" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="BD48" s="14">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="BE48" s="14">
-        <v>56</v>
-      </c>
-      <c r="BF48" s="14" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="BF48" s="14">
+        <v>45</v>
       </c>
       <c r="BG48" s="14">
         <v>45</v>
       </c>
-      <c r="BH48" s="14">
-        <v>45</v>
-      </c>
-      <c r="BI48" s="14">
-        <v>45</v>
-      </c>
-      <c r="BJ48" s="14">
-        <v>45</v>
-      </c>
-      <c r="BK48" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="BH48" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI48" s="10"/>
+      <c r="BJ48" s="10"/>
+      <c r="BK48" s="10"/>
       <c r="BL48" s="10"/>
       <c r="BM48" s="10"/>
       <c r="BN48" s="10"/>
@@ -7953,13 +7907,13 @@
     </row>
     <row r="49" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A49" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
       <c r="G49" s="10"/>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
@@ -7990,82 +7944,82 @@
       <c r="AH49" s="10"/>
       <c r="AI49" s="10"/>
       <c r="AJ49" s="10"/>
-      <c r="AK49" s="11"/>
-      <c r="AL49" s="11"/>
-      <c r="AM49" s="11"/>
-      <c r="AN49" s="11"/>
+      <c r="AK49" s="14"/>
+      <c r="AL49" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM49" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN49" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="AO49" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AP49" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AQ49" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR49" s="14" t="s">
-        <v>11</v>
+      <c r="AP49" s="14">
+        <v>78</v>
+      </c>
+      <c r="AQ49" s="14">
+        <v>78</v>
+      </c>
+      <c r="AR49" s="14">
+        <v>78</v>
       </c>
       <c r="AS49" s="14">
         <v>78</v>
       </c>
-      <c r="AT49" s="14">
-        <v>78</v>
+      <c r="AT49" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AU49" s="14">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AV49" s="14">
-        <v>78</v>
-      </c>
-      <c r="AW49" s="14" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="AW49" s="14">
+        <v>67</v>
       </c>
       <c r="AX49" s="14">
         <v>67</v>
       </c>
-      <c r="AY49" s="14">
-        <v>67</v>
+      <c r="AY49" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AZ49" s="14">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="BA49" s="14">
-        <v>67</v>
-      </c>
-      <c r="BB49" s="14" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="BB49" s="14">
+        <v>56</v>
       </c>
       <c r="BC49" s="14">
         <v>56</v>
       </c>
-      <c r="BD49" s="14">
-        <v>56</v>
+      <c r="BD49" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="BE49" s="14">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="BF49" s="14">
-        <v>56</v>
-      </c>
-      <c r="BG49" s="14" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="BG49" s="14">
+        <v>45</v>
       </c>
       <c r="BH49" s="14">
         <v>45</v>
       </c>
-      <c r="BI49" s="14">
-        <v>45</v>
-      </c>
-      <c r="BJ49" s="14">
-        <v>45</v>
-      </c>
-      <c r="BK49" s="14">
-        <v>45</v>
-      </c>
-      <c r="BL49" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="BI49" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ49" s="10"/>
+      <c r="BK49" s="10"/>
+      <c r="BL49" s="10"/>
       <c r="BM49" s="10"/>
       <c r="BN49" s="10"/>
       <c r="BO49" s="10"/>
@@ -8076,13 +8030,13 @@
     </row>
     <row r="50" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A50" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
+        <v>46</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
@@ -8113,83 +8067,83 @@
       <c r="AH50" s="10"/>
       <c r="AI50" s="10"/>
       <c r="AJ50" s="10"/>
-      <c r="AK50" s="10"/>
-      <c r="AL50" s="10"/>
-      <c r="AM50" s="10"/>
-      <c r="AN50" s="10"/>
-      <c r="AO50" s="14"/>
+      <c r="AK50" s="14"/>
+      <c r="AL50" s="14"/>
+      <c r="AM50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO50" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="AP50" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AQ50" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR50" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS50" s="14" t="s">
-        <v>11</v>
+      <c r="AQ50" s="14">
+        <v>78</v>
+      </c>
+      <c r="AR50" s="14">
+        <v>78</v>
+      </c>
+      <c r="AS50" s="14">
+        <v>78</v>
       </c>
       <c r="AT50" s="14">
         <v>78</v>
       </c>
-      <c r="AU50" s="14">
-        <v>78</v>
+      <c r="AU50" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AV50" s="14">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AW50" s="14">
-        <v>78</v>
-      </c>
-      <c r="AX50" s="14" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="AX50" s="14">
+        <v>67</v>
       </c>
       <c r="AY50" s="14">
         <v>67</v>
       </c>
-      <c r="AZ50" s="14">
-        <v>67</v>
+      <c r="AZ50" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="BA50" s="14">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="BB50" s="14">
-        <v>67</v>
-      </c>
-      <c r="BC50" s="14" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="BC50" s="14">
+        <v>56</v>
       </c>
       <c r="BD50" s="14">
         <v>56</v>
       </c>
-      <c r="BE50" s="14">
-        <v>56</v>
+      <c r="BE50" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="BF50" s="14">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="BG50" s="14">
-        <v>56</v>
-      </c>
-      <c r="BH50" s="14" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="BH50" s="14">
+        <v>45</v>
       </c>
       <c r="BI50" s="14">
         <v>45</v>
       </c>
-      <c r="BJ50" s="14">
-        <v>45</v>
-      </c>
-      <c r="BK50" s="14">
-        <v>45</v>
-      </c>
-      <c r="BL50" s="14">
-        <v>45</v>
-      </c>
-      <c r="BM50" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="BJ50" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK50" s="10"/>
+      <c r="BL50" s="10"/>
+      <c r="BM50" s="10"/>
       <c r="BN50" s="10"/>
       <c r="BO50" s="10"/>
       <c r="BP50" s="10"/>
@@ -8199,13 +8153,13 @@
     </row>
     <row r="51" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A51" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="10"/>
       <c r="H51" s="10"/>
       <c r="I51" s="10"/>
@@ -8236,84 +8190,84 @@
       <c r="AH51" s="10"/>
       <c r="AI51" s="10"/>
       <c r="AJ51" s="10"/>
-      <c r="AK51" s="10"/>
-      <c r="AL51" s="10"/>
-      <c r="AM51" s="10"/>
-      <c r="AN51" s="10"/>
-      <c r="AO51" s="14"/>
-      <c r="AP51" s="14"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="14"/>
+      <c r="AM51" s="14"/>
+      <c r="AN51" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AO51" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP51" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="AQ51" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AR51" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS51" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT51" s="14" t="s">
-        <v>11</v>
+      <c r="AR51" s="14">
+        <v>78</v>
+      </c>
+      <c r="AS51" s="14">
+        <v>78</v>
+      </c>
+      <c r="AT51" s="14">
+        <v>78</v>
       </c>
       <c r="AU51" s="14">
         <v>78</v>
       </c>
-      <c r="AV51" s="14">
-        <v>78</v>
+      <c r="AV51" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AW51" s="14">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AX51" s="14">
-        <v>78</v>
-      </c>
-      <c r="AY51" s="14" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="AY51" s="14">
+        <v>67</v>
       </c>
       <c r="AZ51" s="14">
         <v>67</v>
       </c>
-      <c r="BA51" s="14">
-        <v>67</v>
+      <c r="BA51" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="BB51" s="14">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="BC51" s="14">
-        <v>67</v>
-      </c>
-      <c r="BD51" s="14" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="BD51" s="14">
+        <v>56</v>
       </c>
       <c r="BE51" s="14">
         <v>56</v>
       </c>
-      <c r="BF51" s="14">
-        <v>56</v>
+      <c r="BF51" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="BG51" s="14">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="BH51" s="14">
-        <v>56</v>
-      </c>
-      <c r="BI51" s="14" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="BI51" s="14">
+        <v>45</v>
       </c>
       <c r="BJ51" s="14">
         <v>45</v>
       </c>
-      <c r="BK51" s="14">
-        <v>45</v>
-      </c>
-      <c r="BL51" s="14">
-        <v>45</v>
-      </c>
-      <c r="BM51" s="14">
-        <v>45</v>
-      </c>
-      <c r="BN51" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="BK51" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BL51" s="10"/>
+      <c r="BM51" s="10"/>
+      <c r="BN51" s="10"/>
       <c r="BO51" s="10"/>
       <c r="BP51" s="10"/>
       <c r="BQ51" s="10"/>
@@ -8322,13 +8276,13 @@
     </row>
     <row r="52" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A52" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
+        <v>48</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
@@ -8359,286 +8313,330 @@
       <c r="AH52" s="10"/>
       <c r="AI52" s="10"/>
       <c r="AJ52" s="10"/>
-      <c r="AK52" s="10"/>
-      <c r="AL52" s="10"/>
-      <c r="AM52" s="10"/>
-      <c r="AN52" s="10"/>
-      <c r="AO52" s="14"/>
-      <c r="AP52" s="14"/>
-      <c r="AQ52" s="14"/>
+      <c r="AK52" s="11"/>
+      <c r="AL52" s="11"/>
+      <c r="AM52" s="11"/>
+      <c r="AN52" s="11"/>
+      <c r="AO52" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AP52" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ52" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="AR52" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AS52" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AT52" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="AU52" s="14" t="s">
-        <v>11</v>
+      <c r="AS52" s="14">
+        <v>78</v>
+      </c>
+      <c r="AT52" s="14">
+        <v>78</v>
+      </c>
+      <c r="AU52" s="14">
+        <v>78</v>
       </c>
       <c r="AV52" s="14">
         <v>78</v>
       </c>
-      <c r="AW52" s="14">
-        <v>78</v>
+      <c r="AW52" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="AX52" s="14">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AY52" s="14">
-        <v>78</v>
-      </c>
-      <c r="AZ52" s="14" t="s">
-        <v>11</v>
+        <v>67</v>
+      </c>
+      <c r="AZ52" s="14">
+        <v>67</v>
       </c>
       <c r="BA52" s="14">
         <v>67</v>
       </c>
-      <c r="BB52" s="14">
-        <v>67</v>
+      <c r="BB52" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="BC52" s="14">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="BD52" s="14">
-        <v>67</v>
-      </c>
-      <c r="BE52" s="14" t="s">
-        <v>11</v>
+        <v>56</v>
+      </c>
+      <c r="BE52" s="14">
+        <v>56</v>
       </c>
       <c r="BF52" s="14">
         <v>56</v>
       </c>
-      <c r="BG52" s="14">
-        <v>56</v>
+      <c r="BG52" s="14" t="s">
+        <v>11</v>
       </c>
       <c r="BH52" s="14">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="BI52" s="14">
-        <v>56</v>
-      </c>
-      <c r="BJ52" s="14" t="s">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="BJ52" s="14">
+        <v>45</v>
       </c>
       <c r="BK52" s="14">
         <v>45</v>
       </c>
-      <c r="BL52" s="14">
-        <v>45</v>
-      </c>
-      <c r="BM52" s="14">
-        <v>45</v>
-      </c>
-      <c r="BN52" s="14">
-        <v>45</v>
-      </c>
-      <c r="BO52" s="14" t="s">
-        <v>11</v>
-      </c>
+      <c r="BL52" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM52" s="10"/>
+      <c r="BN52" s="10"/>
+      <c r="BO52" s="10"/>
       <c r="BP52" s="10"/>
       <c r="BQ52" s="10"/>
       <c r="BR52" s="10"/>
       <c r="BS52" s="10"/>
     </row>
     <row r="53" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A53" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="11"/>
-      <c r="R53" s="11"/>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
-      <c r="X53" s="11"/>
-      <c r="Y53" s="11"/>
-      <c r="Z53" s="11"/>
-      <c r="AA53" s="14"/>
-      <c r="AB53" s="14"/>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="14"/>
-      <c r="AE53" s="14"/>
-      <c r="AF53" s="14"/>
-      <c r="AG53" s="14"/>
-      <c r="AH53" s="14"/>
-      <c r="AI53" s="11"/>
-      <c r="AJ53" s="11"/>
-      <c r="AK53" s="11"/>
-      <c r="AL53" s="11"/>
-      <c r="AM53" s="11"/>
-      <c r="AN53" s="11"/>
-      <c r="AO53" s="11"/>
-      <c r="AP53" s="11"/>
-      <c r="AQ53" s="11"/>
-      <c r="AR53" s="11"/>
-      <c r="AS53" s="11"/>
-      <c r="AT53" s="11"/>
-      <c r="AU53" s="11"/>
-      <c r="AV53" s="11"/>
-      <c r="AW53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AX53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AY53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="AZ53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BA53" s="14"/>
-      <c r="BB53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BD53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BE53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF53" s="14"/>
-      <c r="BG53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BI53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BJ53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK53" s="14"/>
-      <c r="BL53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BM53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BN53" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="BO53" s="24" t="s">
-        <v>1</v>
-      </c>
+      <c r="A53" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="10"/>
+      <c r="AB53" s="10"/>
+      <c r="AC53" s="10"/>
+      <c r="AD53" s="10"/>
+      <c r="AE53" s="10"/>
+      <c r="AF53" s="10"/>
+      <c r="AG53" s="10"/>
+      <c r="AH53" s="10"/>
+      <c r="AI53" s="10"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="10"/>
+      <c r="AL53" s="10"/>
+      <c r="AM53" s="10"/>
+      <c r="AN53" s="10"/>
+      <c r="AO53" s="14"/>
+      <c r="AP53" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AQ53" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR53" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS53" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT53" s="14">
+        <v>78</v>
+      </c>
+      <c r="AU53" s="14">
+        <v>78</v>
+      </c>
+      <c r="AV53" s="14">
+        <v>78</v>
+      </c>
+      <c r="AW53" s="14">
+        <v>78</v>
+      </c>
+      <c r="AX53" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY53" s="14">
+        <v>67</v>
+      </c>
+      <c r="AZ53" s="14">
+        <v>67</v>
+      </c>
+      <c r="BA53" s="14">
+        <v>67</v>
+      </c>
+      <c r="BB53" s="14">
+        <v>67</v>
+      </c>
+      <c r="BC53" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD53" s="14">
+        <v>56</v>
+      </c>
+      <c r="BE53" s="14">
+        <v>56</v>
+      </c>
+      <c r="BF53" s="14">
+        <v>56</v>
+      </c>
+      <c r="BG53" s="14">
+        <v>56</v>
+      </c>
+      <c r="BH53" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI53" s="14">
+        <v>45</v>
+      </c>
+      <c r="BJ53" s="14">
+        <v>45</v>
+      </c>
+      <c r="BK53" s="14">
+        <v>45</v>
+      </c>
+      <c r="BL53" s="14">
+        <v>45</v>
+      </c>
+      <c r="BM53" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BN53" s="10"/>
+      <c r="BO53" s="10"/>
       <c r="BP53" s="10"/>
       <c r="BQ53" s="10"/>
       <c r="BR53" s="10"/>
       <c r="BS53" s="10"/>
     </row>
     <row r="54" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A54" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="11"/>
-      <c r="R54" s="11"/>
-      <c r="S54" s="11"/>
-      <c r="T54" s="11"/>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
-      <c r="X54" s="11"/>
-      <c r="Y54" s="11"/>
-      <c r="Z54" s="11"/>
-      <c r="AA54" s="11"/>
-      <c r="AB54" s="11"/>
-      <c r="AC54" s="11"/>
-      <c r="AD54" s="11"/>
-      <c r="AE54" s="11"/>
-      <c r="AF54" s="11"/>
-      <c r="AG54" s="11"/>
-      <c r="AH54" s="11"/>
-      <c r="AI54" s="11"/>
-      <c r="AJ54" s="11"/>
-      <c r="AK54" s="11"/>
-      <c r="AL54" s="11"/>
-      <c r="AM54" s="11"/>
-      <c r="AN54" s="11"/>
-      <c r="AO54" s="11"/>
-      <c r="AP54" s="11"/>
-      <c r="AQ54" s="19">
-        <v>11</v>
-      </c>
-      <c r="AR54" s="11"/>
-      <c r="AS54" s="11"/>
-      <c r="AT54" s="11"/>
-      <c r="AU54" s="11"/>
-      <c r="AV54" s="11"/>
-      <c r="AW54" s="19">
-        <v>22</v>
-      </c>
-      <c r="AX54" s="19">
-        <v>21</v>
-      </c>
-      <c r="AY54" s="11"/>
-      <c r="AZ54" s="11"/>
-      <c r="BA54" s="11"/>
-      <c r="BB54" s="11"/>
-      <c r="BC54" s="19">
-        <v>33</v>
-      </c>
-      <c r="BD54" s="19">
-        <v>32</v>
-      </c>
-      <c r="BE54" s="19">
-        <v>31</v>
-      </c>
-      <c r="BF54" s="11"/>
-      <c r="BG54" s="11"/>
-      <c r="BH54" s="11"/>
-      <c r="BI54" s="19">
-        <v>44</v>
-      </c>
-      <c r="BJ54" s="19">
-        <v>43</v>
-      </c>
-      <c r="BK54" s="19">
-        <v>42</v>
-      </c>
-      <c r="BL54" s="19">
-        <v>41</v>
-      </c>
-      <c r="BM54" s="10"/>
-      <c r="BN54" s="10"/>
+      <c r="A54" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="10"/>
+      <c r="AH54" s="10"/>
+      <c r="AI54" s="10"/>
+      <c r="AJ54" s="10"/>
+      <c r="AK54" s="10"/>
+      <c r="AL54" s="10"/>
+      <c r="AM54" s="10"/>
+      <c r="AN54" s="10"/>
+      <c r="AO54" s="14"/>
+      <c r="AP54" s="14"/>
+      <c r="AQ54" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AR54" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS54" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT54" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU54" s="14">
+        <v>78</v>
+      </c>
+      <c r="AV54" s="14">
+        <v>78</v>
+      </c>
+      <c r="AW54" s="14">
+        <v>78</v>
+      </c>
+      <c r="AX54" s="14">
+        <v>78</v>
+      </c>
+      <c r="AY54" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AZ54" s="14">
+        <v>67</v>
+      </c>
+      <c r="BA54" s="14">
+        <v>67</v>
+      </c>
+      <c r="BB54" s="14">
+        <v>67</v>
+      </c>
+      <c r="BC54" s="14">
+        <v>67</v>
+      </c>
+      <c r="BD54" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BE54" s="14">
+        <v>56</v>
+      </c>
+      <c r="BF54" s="14">
+        <v>56</v>
+      </c>
+      <c r="BG54" s="14">
+        <v>56</v>
+      </c>
+      <c r="BH54" s="14">
+        <v>56</v>
+      </c>
+      <c r="BI54" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BJ54" s="14">
+        <v>45</v>
+      </c>
+      <c r="BK54" s="14">
+        <v>45</v>
+      </c>
+      <c r="BL54" s="14">
+        <v>45</v>
+      </c>
+      <c r="BM54" s="14">
+        <v>45</v>
+      </c>
+      <c r="BN54" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="BO54" s="10"/>
       <c r="BP54" s="10"/>
       <c r="BQ54" s="10"/>
@@ -8646,8 +8644,8 @@
       <c r="BS54" s="10"/>
     </row>
     <row r="55" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A55" s="25" t="s">
-        <v>57</v>
+      <c r="A55" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="10"/>
@@ -8688,135 +8686,183 @@
       <c r="AL55" s="10"/>
       <c r="AM55" s="10"/>
       <c r="AN55" s="10"/>
-      <c r="AO55" s="10"/>
-      <c r="AP55" s="10"/>
-      <c r="AQ55" s="10"/>
-      <c r="AR55" s="10"/>
-      <c r="AS55" s="10"/>
-      <c r="AT55" s="10"/>
-      <c r="AU55" s="25">
-        <v>11</v>
-      </c>
-      <c r="AV55" s="25">
-        <v>12</v>
-      </c>
-      <c r="AW55" s="25">
-        <v>13</v>
-      </c>
-      <c r="AX55" s="25">
-        <v>14</v>
-      </c>
-      <c r="AY55" s="25">
-        <v>15</v>
-      </c>
-      <c r="AZ55" s="25">
-        <v>16</v>
-      </c>
-      <c r="BA55" s="25">
-        <v>17</v>
-      </c>
-      <c r="BB55" s="25">
-        <v>18</v>
-      </c>
-      <c r="BC55" s="10"/>
-      <c r="BD55" s="10"/>
-      <c r="BE55" s="10"/>
-      <c r="BF55" s="10"/>
-      <c r="BG55" s="10"/>
-      <c r="BH55" s="10"/>
-      <c r="BI55" s="10"/>
-      <c r="BJ55" s="10"/>
-      <c r="BK55" s="10"/>
-      <c r="BL55" s="10"/>
-      <c r="BM55" s="10"/>
-      <c r="BN55" s="10"/>
-      <c r="BO55" s="10"/>
+      <c r="AO55" s="14"/>
+      <c r="AP55" s="14"/>
+      <c r="AQ55" s="14"/>
+      <c r="AR55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AV55" s="14">
+        <v>78</v>
+      </c>
+      <c r="AW55" s="14">
+        <v>78</v>
+      </c>
+      <c r="AX55" s="14">
+        <v>78</v>
+      </c>
+      <c r="AY55" s="14">
+        <v>78</v>
+      </c>
+      <c r="AZ55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BA55" s="14">
+        <v>67</v>
+      </c>
+      <c r="BB55" s="14">
+        <v>67</v>
+      </c>
+      <c r="BC55" s="14">
+        <v>67</v>
+      </c>
+      <c r="BD55" s="14">
+        <v>67</v>
+      </c>
+      <c r="BE55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BF55" s="14">
+        <v>56</v>
+      </c>
+      <c r="BG55" s="14">
+        <v>56</v>
+      </c>
+      <c r="BH55" s="14">
+        <v>56</v>
+      </c>
+      <c r="BI55" s="14">
+        <v>56</v>
+      </c>
+      <c r="BJ55" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="BK55" s="14">
+        <v>45</v>
+      </c>
+      <c r="BL55" s="14">
+        <v>45</v>
+      </c>
+      <c r="BM55" s="14">
+        <v>45</v>
+      </c>
+      <c r="BN55" s="14">
+        <v>45</v>
+      </c>
+      <c r="BO55" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="BP55" s="10"/>
       <c r="BQ55" s="10"/>
       <c r="BR55" s="10"/>
       <c r="BS55" s="10"/>
     </row>
     <row r="56" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A56" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10"/>
-      <c r="AA56" s="10"/>
-      <c r="AB56" s="10"/>
-      <c r="AC56" s="10"/>
-      <c r="AD56" s="10"/>
-      <c r="AE56" s="10"/>
-      <c r="AF56" s="10"/>
-      <c r="AG56" s="10"/>
-      <c r="AH56" s="10"/>
-      <c r="AI56" s="10"/>
-      <c r="AJ56" s="10"/>
-      <c r="AK56" s="10"/>
-      <c r="AL56" s="10"/>
-      <c r="AM56" s="10"/>
-      <c r="AN56" s="10"/>
-      <c r="AO56" s="10"/>
-      <c r="AP56" s="10"/>
-      <c r="AQ56" s="10"/>
-      <c r="AR56" s="10"/>
-      <c r="AS56" s="10"/>
-      <c r="AT56" s="10"/>
-      <c r="AU56" s="10"/>
-      <c r="AV56" s="10"/>
-      <c r="AW56" s="10"/>
-      <c r="AX56" s="10"/>
-      <c r="AY56" s="25">
-        <v>21</v>
-      </c>
-      <c r="AZ56" s="25">
-        <v>22</v>
-      </c>
-      <c r="BA56" s="25">
-        <v>23</v>
-      </c>
-      <c r="BB56" s="25">
-        <v>24</v>
-      </c>
-      <c r="BC56" s="25">
-        <v>25</v>
-      </c>
-      <c r="BD56" s="25">
-        <v>26</v>
-      </c>
-      <c r="BE56" s="25">
-        <v>27</v>
-      </c>
-      <c r="BF56" s="25">
-        <v>28</v>
-      </c>
-      <c r="BG56" s="10"/>
-      <c r="BH56" s="10"/>
-      <c r="BI56" s="10"/>
-      <c r="BJ56" s="10"/>
+      <c r="A56" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="11"/>
+      <c r="AA56" s="14"/>
+      <c r="AB56" s="14"/>
+      <c r="AC56" s="14"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="14"/>
+      <c r="AF56" s="14"/>
+      <c r="AG56" s="14"/>
+      <c r="AH56" s="14"/>
+      <c r="AI56" s="11"/>
+      <c r="AJ56" s="11"/>
+      <c r="AK56" s="11"/>
+      <c r="AL56" s="11"/>
+      <c r="AM56" s="11"/>
+      <c r="AN56" s="11"/>
+      <c r="AO56" s="11"/>
+      <c r="AP56" s="11"/>
+      <c r="AQ56" s="11"/>
+      <c r="AR56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV56" s="14"/>
+      <c r="AW56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BA56" s="14"/>
+      <c r="BB56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF56" s="14"/>
+      <c r="BG56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI56" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ56" s="24" t="s">
+        <v>1</v>
+      </c>
       <c r="BK56" s="10"/>
       <c r="BL56" s="10"/>
       <c r="BM56" s="10"/>
@@ -8828,90 +8874,106 @@
       <c r="BS56" s="10"/>
     </row>
     <row r="57" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A57" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="10"/>
-      <c r="AB57" s="10"/>
-      <c r="AC57" s="10"/>
-      <c r="AD57" s="10"/>
-      <c r="AE57" s="10"/>
-      <c r="AF57" s="10"/>
-      <c r="AG57" s="10"/>
-      <c r="AH57" s="10"/>
-      <c r="AI57" s="10"/>
-      <c r="AJ57" s="10"/>
-      <c r="AK57" s="10"/>
-      <c r="AL57" s="10"/>
-      <c r="AM57" s="10"/>
-      <c r="AN57" s="10"/>
-      <c r="AO57" s="10"/>
-      <c r="AP57" s="10"/>
-      <c r="AQ57" s="10"/>
-      <c r="AR57" s="10"/>
-      <c r="AS57" s="10"/>
-      <c r="AT57" s="10"/>
-      <c r="AU57" s="10"/>
-      <c r="AV57" s="10"/>
-      <c r="AW57" s="10"/>
-      <c r="AX57" s="10"/>
-      <c r="AY57" s="10"/>
-      <c r="AZ57" s="10"/>
-      <c r="BA57" s="10"/>
-      <c r="BB57" s="10"/>
-      <c r="BC57" s="10"/>
-      <c r="BD57" s="25">
-        <v>31</v>
-      </c>
-      <c r="BE57" s="25">
-        <v>32</v>
-      </c>
-      <c r="BF57" s="25">
-        <v>33</v>
-      </c>
-      <c r="BG57" s="25">
-        <v>34</v>
-      </c>
-      <c r="BH57" s="25">
-        <v>35</v>
-      </c>
-      <c r="BI57" s="25">
-        <v>36</v>
-      </c>
-      <c r="BJ57" s="25">
-        <v>37</v>
-      </c>
-      <c r="BK57" s="25">
-        <v>38</v>
-      </c>
-      <c r="BL57" s="10"/>
-      <c r="BM57" s="10"/>
-      <c r="BN57" s="10"/>
+      <c r="A57" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="11"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="14"/>
+      <c r="AC57" s="14"/>
+      <c r="AD57" s="14"/>
+      <c r="AE57" s="14"/>
+      <c r="AF57" s="14"/>
+      <c r="AG57" s="14"/>
+      <c r="AH57" s="14"/>
+      <c r="AI57" s="11"/>
+      <c r="AJ57" s="11"/>
+      <c r="AK57" s="11"/>
+      <c r="AL57" s="11"/>
+      <c r="AM57" s="11"/>
+      <c r="AN57" s="11"/>
+      <c r="AO57" s="11"/>
+      <c r="AP57" s="11"/>
+      <c r="AQ57" s="11"/>
+      <c r="AR57" s="11"/>
+      <c r="AS57" s="11"/>
+      <c r="AT57" s="11"/>
+      <c r="AU57" s="11"/>
+      <c r="AV57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AW57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AY57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ57" s="14"/>
+      <c r="BA57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BD57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE57" s="14"/>
+      <c r="BF57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BI57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ57" s="14"/>
+      <c r="BK57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM57" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN57" s="24" t="s">
+        <v>1</v>
+      </c>
       <c r="BO57" s="10"/>
       <c r="BP57" s="10"/>
       <c r="BQ57" s="10"/>
@@ -8919,99 +8981,103 @@
       <c r="BS57" s="10"/>
     </row>
     <row r="58" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A58" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
-      <c r="Z58" s="10"/>
-      <c r="AA58" s="10"/>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
-      <c r="AD58" s="10"/>
-      <c r="AE58" s="10"/>
-      <c r="AF58" s="10"/>
-      <c r="AG58" s="10"/>
-      <c r="AH58" s="10"/>
-      <c r="AI58" s="10"/>
-      <c r="AJ58" s="10"/>
-      <c r="AK58" s="10"/>
-      <c r="AL58" s="10"/>
-      <c r="AM58" s="10"/>
-      <c r="AN58" s="10"/>
-      <c r="AO58" s="10"/>
-      <c r="AP58" s="10"/>
-      <c r="AQ58" s="10"/>
-      <c r="AR58" s="10"/>
-      <c r="AS58" s="10"/>
-      <c r="AT58" s="10"/>
-      <c r="AU58" s="10"/>
-      <c r="AV58" s="10"/>
-      <c r="AW58" s="10"/>
-      <c r="AX58" s="10"/>
-      <c r="AY58" s="10"/>
-      <c r="AZ58" s="10"/>
-      <c r="BA58" s="10"/>
-      <c r="BB58" s="10"/>
-      <c r="BC58" s="10"/>
-      <c r="BD58" s="10"/>
-      <c r="BE58" s="10"/>
-      <c r="BF58" s="10"/>
-      <c r="BG58" s="10"/>
-      <c r="BH58" s="10"/>
-      <c r="BI58" s="25">
+      <c r="A58" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="11"/>
+      <c r="R58" s="11"/>
+      <c r="S58" s="11"/>
+      <c r="T58" s="11"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
+      <c r="Z58" s="11"/>
+      <c r="AA58" s="11"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
+      <c r="AF58" s="11"/>
+      <c r="AG58" s="11"/>
+      <c r="AH58" s="11"/>
+      <c r="AI58" s="11"/>
+      <c r="AJ58" s="11"/>
+      <c r="AK58" s="11"/>
+      <c r="AL58" s="11"/>
+      <c r="AM58" s="11"/>
+      <c r="AN58" s="11"/>
+      <c r="AO58" s="11"/>
+      <c r="AP58" s="11"/>
+      <c r="AQ58" s="19">
+        <v>11</v>
+      </c>
+      <c r="AR58" s="11"/>
+      <c r="AS58" s="11"/>
+      <c r="AT58" s="11"/>
+      <c r="AU58" s="11"/>
+      <c r="AV58" s="11"/>
+      <c r="AW58" s="19">
+        <v>22</v>
+      </c>
+      <c r="AX58" s="19">
+        <v>21</v>
+      </c>
+      <c r="AY58" s="11"/>
+      <c r="AZ58" s="11"/>
+      <c r="BA58" s="11"/>
+      <c r="BB58" s="11"/>
+      <c r="BC58" s="19">
+        <v>33</v>
+      </c>
+      <c r="BD58" s="19">
+        <v>32</v>
+      </c>
+      <c r="BE58" s="19">
+        <v>31</v>
+      </c>
+      <c r="BF58" s="11"/>
+      <c r="BG58" s="11"/>
+      <c r="BH58" s="11"/>
+      <c r="BI58" s="19">
+        <v>44</v>
+      </c>
+      <c r="BJ58" s="19">
+        <v>43</v>
+      </c>
+      <c r="BK58" s="19">
+        <v>42</v>
+      </c>
+      <c r="BL58" s="19">
         <v>41</v>
       </c>
-      <c r="BJ58" s="25">
-        <v>42</v>
-      </c>
-      <c r="BK58" s="25">
-        <v>43</v>
-      </c>
-      <c r="BL58" s="25">
-        <v>44</v>
-      </c>
-      <c r="BM58" s="25">
-        <v>45</v>
-      </c>
-      <c r="BN58" s="25">
-        <v>46</v>
-      </c>
-      <c r="BO58" s="25">
-        <v>47</v>
-      </c>
-      <c r="BP58" s="25">
-        <v>48</v>
-      </c>
+      <c r="BM58" s="10"/>
+      <c r="BN58" s="10"/>
+      <c r="BO58" s="10"/>
+      <c r="BP58" s="10"/>
       <c r="BQ58" s="10"/>
       <c r="BR58" s="10"/>
       <c r="BS58" s="10"/>
     </row>
     <row r="59" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A59" s="25" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="10"/>
@@ -9058,51 +9124,51 @@
       <c r="AR59" s="10"/>
       <c r="AS59" s="10"/>
       <c r="AT59" s="10"/>
-      <c r="AU59" s="10"/>
-      <c r="AV59" s="10"/>
-      <c r="AW59" s="10"/>
-      <c r="AX59" s="10"/>
-      <c r="AY59" s="10"/>
-      <c r="AZ59" s="10"/>
-      <c r="BA59" s="10"/>
-      <c r="BB59" s="10"/>
+      <c r="AU59" s="25">
+        <v>11</v>
+      </c>
+      <c r="AV59" s="25">
+        <v>12</v>
+      </c>
+      <c r="AW59" s="25">
+        <v>13</v>
+      </c>
+      <c r="AX59" s="25">
+        <v>14</v>
+      </c>
+      <c r="AY59" s="25">
+        <v>15</v>
+      </c>
+      <c r="AZ59" s="25">
+        <v>16</v>
+      </c>
+      <c r="BA59" s="25">
+        <v>17</v>
+      </c>
+      <c r="BB59" s="25">
+        <v>18</v>
+      </c>
       <c r="BC59" s="10"/>
       <c r="BD59" s="10"/>
       <c r="BE59" s="10"/>
       <c r="BF59" s="10"/>
       <c r="BG59" s="10"/>
       <c r="BH59" s="10"/>
-      <c r="BI59" s="25">
-        <v>51</v>
-      </c>
-      <c r="BJ59" s="25">
-        <v>52</v>
-      </c>
-      <c r="BK59" s="25">
-        <v>53</v>
-      </c>
-      <c r="BL59" s="25">
-        <v>54</v>
-      </c>
-      <c r="BM59" s="25">
-        <v>55</v>
-      </c>
-      <c r="BN59" s="25">
-        <v>56</v>
-      </c>
-      <c r="BO59" s="25">
-        <v>57</v>
-      </c>
-      <c r="BP59" s="25">
-        <v>58</v>
-      </c>
+      <c r="BI59" s="10"/>
+      <c r="BJ59" s="10"/>
+      <c r="BK59" s="10"/>
+      <c r="BL59" s="10"/>
+      <c r="BM59" s="10"/>
+      <c r="BN59" s="10"/>
+      <c r="BO59" s="10"/>
+      <c r="BP59" s="10"/>
       <c r="BQ59" s="10"/>
       <c r="BR59" s="10"/>
       <c r="BS59" s="10"/>
     </row>
     <row r="60" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A60" s="25" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
@@ -9153,35 +9219,35 @@
       <c r="AV60" s="10"/>
       <c r="AW60" s="10"/>
       <c r="AX60" s="10"/>
-      <c r="AY60" s="10"/>
-      <c r="AZ60" s="10"/>
-      <c r="BA60" s="10"/>
-      <c r="BB60" s="10"/>
-      <c r="BC60" s="10"/>
+      <c r="AY60" s="25">
+        <v>21</v>
+      </c>
+      <c r="AZ60" s="25">
+        <v>22</v>
+      </c>
+      <c r="BA60" s="25">
+        <v>23</v>
+      </c>
+      <c r="BB60" s="25">
+        <v>24</v>
+      </c>
+      <c r="BC60" s="25">
+        <v>25</v>
+      </c>
       <c r="BD60" s="25">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="BE60" s="25">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="BF60" s="25">
-        <v>63</v>
-      </c>
-      <c r="BG60" s="25">
-        <v>64</v>
-      </c>
-      <c r="BH60" s="25">
-        <v>65</v>
-      </c>
-      <c r="BI60" s="25">
-        <v>66</v>
-      </c>
-      <c r="BJ60" s="25">
-        <v>67</v>
-      </c>
-      <c r="BK60" s="25">
-        <v>68</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="BG60" s="10"/>
+      <c r="BH60" s="10"/>
+      <c r="BI60" s="10"/>
+      <c r="BJ60" s="10"/>
+      <c r="BK60" s="10"/>
       <c r="BL60" s="10"/>
       <c r="BM60" s="10"/>
       <c r="BN60" s="10"/>
@@ -9193,7 +9259,7 @@
     </row>
     <row r="61" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A61" s="25" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
@@ -9244,35 +9310,35 @@
       <c r="AV61" s="10"/>
       <c r="AW61" s="10"/>
       <c r="AX61" s="10"/>
-      <c r="AY61" s="25">
-        <v>71</v>
-      </c>
-      <c r="AZ61" s="25">
-        <v>72</v>
-      </c>
-      <c r="BA61" s="25">
-        <v>73</v>
-      </c>
-      <c r="BB61" s="25">
-        <v>74</v>
-      </c>
-      <c r="BC61" s="25">
-        <v>75</v>
-      </c>
+      <c r="AY61" s="10"/>
+      <c r="AZ61" s="10"/>
+      <c r="BA61" s="10"/>
+      <c r="BB61" s="10"/>
+      <c r="BC61" s="10"/>
       <c r="BD61" s="25">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="BE61" s="25">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="BF61" s="25">
-        <v>78</v>
-      </c>
-      <c r="BG61" s="10"/>
-      <c r="BH61" s="10"/>
-      <c r="BI61" s="10"/>
-      <c r="BJ61" s="10"/>
-      <c r="BK61" s="10"/>
+        <v>33</v>
+      </c>
+      <c r="BG61" s="25">
+        <v>34</v>
+      </c>
+      <c r="BH61" s="25">
+        <v>35</v>
+      </c>
+      <c r="BI61" s="25">
+        <v>36</v>
+      </c>
+      <c r="BJ61" s="25">
+        <v>37</v>
+      </c>
+      <c r="BK61" s="25">
+        <v>38</v>
+      </c>
       <c r="BL61" s="10"/>
       <c r="BM61" s="10"/>
       <c r="BN61" s="10"/>
@@ -9284,7 +9350,7 @@
     </row>
     <row r="62" spans="1:71" x14ac:dyDescent="0.45">
       <c r="A62" s="25" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B62" s="10"/>
       <c r="C62" s="10"/>
@@ -9331,51 +9397,51 @@
       <c r="AR62" s="10"/>
       <c r="AS62" s="10"/>
       <c r="AT62" s="10"/>
-      <c r="AU62" s="25">
-        <v>81</v>
-      </c>
-      <c r="AV62" s="25">
-        <v>82</v>
-      </c>
-      <c r="AW62" s="25">
-        <v>83</v>
-      </c>
-      <c r="AX62" s="25">
-        <v>84</v>
-      </c>
-      <c r="AY62" s="25">
-        <v>85</v>
-      </c>
-      <c r="AZ62" s="25">
-        <v>86</v>
-      </c>
-      <c r="BA62" s="25">
-        <v>87</v>
-      </c>
-      <c r="BB62" s="25">
-        <v>88</v>
-      </c>
+      <c r="AU62" s="10"/>
+      <c r="AV62" s="10"/>
+      <c r="AW62" s="10"/>
+      <c r="AX62" s="10"/>
+      <c r="AY62" s="10"/>
+      <c r="AZ62" s="10"/>
+      <c r="BA62" s="10"/>
+      <c r="BB62" s="10"/>
       <c r="BC62" s="10"/>
       <c r="BD62" s="10"/>
       <c r="BE62" s="10"/>
       <c r="BF62" s="10"/>
       <c r="BG62" s="10"/>
       <c r="BH62" s="10"/>
-      <c r="BI62" s="10"/>
-      <c r="BJ62" s="10"/>
-      <c r="BK62" s="10"/>
-      <c r="BL62" s="10"/>
-      <c r="BM62" s="10"/>
-      <c r="BN62" s="10"/>
-      <c r="BO62" s="10"/>
-      <c r="BP62" s="10"/>
+      <c r="BI62" s="25">
+        <v>41</v>
+      </c>
+      <c r="BJ62" s="25">
+        <v>42</v>
+      </c>
+      <c r="BK62" s="25">
+        <v>43</v>
+      </c>
+      <c r="BL62" s="25">
+        <v>44</v>
+      </c>
+      <c r="BM62" s="25">
+        <v>45</v>
+      </c>
+      <c r="BN62" s="25">
+        <v>46</v>
+      </c>
+      <c r="BO62" s="25">
+        <v>47</v>
+      </c>
+      <c r="BP62" s="25">
+        <v>48</v>
+      </c>
       <c r="BQ62" s="10"/>
       <c r="BR62" s="10"/>
       <c r="BS62" s="10"/>
     </row>
     <row r="63" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A63" s="27" t="s">
-        <v>67</v>
+      <c r="A63" s="25" t="s">
+        <v>57</v>
       </c>
       <c r="B63" s="10"/>
       <c r="C63" s="10"/>
@@ -9417,9 +9483,7 @@
       <c r="AM63" s="10"/>
       <c r="AN63" s="10"/>
       <c r="AO63" s="10"/>
-      <c r="AP63" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="AP63" s="10"/>
       <c r="AQ63" s="10"/>
       <c r="AR63" s="10"/>
       <c r="AS63" s="10"/>
@@ -9438,23 +9502,679 @@
       <c r="BF63" s="10"/>
       <c r="BG63" s="10"/>
       <c r="BH63" s="10"/>
-      <c r="BI63" s="10"/>
-      <c r="BJ63" s="10"/>
-      <c r="BK63" s="10"/>
-      <c r="BL63" s="10"/>
-      <c r="BM63" s="10"/>
-      <c r="BN63" s="10"/>
-      <c r="BO63" s="10"/>
-      <c r="BP63" s="26" t="s">
-        <v>66</v>
-      </c>
+      <c r="BI63" s="25">
+        <v>51</v>
+      </c>
+      <c r="BJ63" s="25">
+        <v>52</v>
+      </c>
+      <c r="BK63" s="25">
+        <v>53</v>
+      </c>
+      <c r="BL63" s="25">
+        <v>54</v>
+      </c>
+      <c r="BM63" s="25">
+        <v>55</v>
+      </c>
+      <c r="BN63" s="25">
+        <v>56</v>
+      </c>
+      <c r="BO63" s="25">
+        <v>57</v>
+      </c>
+      <c r="BP63" s="25">
+        <v>58</v>
+      </c>
+      <c r="BQ63" s="10"/>
       <c r="BR63" s="10"/>
       <c r="BS63" s="10"/>
     </row>
     <row r="64" spans="1:71" x14ac:dyDescent="0.45">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10"/>
+      <c r="AA64" s="10"/>
+      <c r="AB64" s="10"/>
+      <c r="AC64" s="10"/>
+      <c r="AD64" s="10"/>
+      <c r="AE64" s="10"/>
+      <c r="AF64" s="10"/>
+      <c r="AG64" s="10"/>
+      <c r="AH64" s="10"/>
+      <c r="AI64" s="10"/>
+      <c r="AJ64" s="10"/>
+      <c r="AK64" s="10"/>
+      <c r="AL64" s="10"/>
+      <c r="AM64" s="10"/>
+      <c r="AN64" s="10"/>
+      <c r="AO64" s="10"/>
+      <c r="AP64" s="10"/>
+      <c r="AQ64" s="10"/>
+      <c r="AR64" s="10"/>
+      <c r="AS64" s="10"/>
+      <c r="AT64" s="10"/>
+      <c r="AU64" s="10"/>
+      <c r="AV64" s="10"/>
+      <c r="AW64" s="10"/>
+      <c r="AX64" s="10"/>
+      <c r="AY64" s="10"/>
+      <c r="AZ64" s="10"/>
+      <c r="BA64" s="10"/>
+      <c r="BB64" s="10"/>
+      <c r="BC64" s="10"/>
+      <c r="BD64" s="25">
+        <v>61</v>
+      </c>
+      <c r="BE64" s="25">
+        <v>62</v>
+      </c>
+      <c r="BF64" s="25">
+        <v>63</v>
+      </c>
+      <c r="BG64" s="25">
+        <v>64</v>
+      </c>
+      <c r="BH64" s="25">
         <v>65</v>
       </c>
+      <c r="BI64" s="25">
+        <v>66</v>
+      </c>
+      <c r="BJ64" s="25">
+        <v>67</v>
+      </c>
+      <c r="BK64" s="25">
+        <v>68</v>
+      </c>
+      <c r="BL64" s="10"/>
+      <c r="BM64" s="10"/>
+      <c r="BN64" s="10"/>
+      <c r="BO64" s="10"/>
+      <c r="BP64" s="10"/>
+      <c r="BQ64" s="10"/>
+      <c r="BR64" s="10"/>
+      <c r="BS64" s="10"/>
+    </row>
+    <row r="65" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="A65" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10"/>
+      <c r="AA65" s="10"/>
+      <c r="AB65" s="10"/>
+      <c r="AC65" s="10"/>
+      <c r="AD65" s="10"/>
+      <c r="AE65" s="10"/>
+      <c r="AF65" s="10"/>
+      <c r="AG65" s="10"/>
+      <c r="AH65" s="10"/>
+      <c r="AI65" s="10"/>
+      <c r="AJ65" s="10"/>
+      <c r="AK65" s="10"/>
+      <c r="AL65" s="10"/>
+      <c r="AM65" s="10"/>
+      <c r="AN65" s="10"/>
+      <c r="AO65" s="10"/>
+      <c r="AP65" s="10"/>
+      <c r="AQ65" s="10"/>
+      <c r="AR65" s="10"/>
+      <c r="AS65" s="10"/>
+      <c r="AT65" s="10"/>
+      <c r="AU65" s="10"/>
+      <c r="AV65" s="10"/>
+      <c r="AW65" s="10"/>
+      <c r="AX65" s="10"/>
+      <c r="AY65" s="25">
+        <v>71</v>
+      </c>
+      <c r="AZ65" s="25">
+        <v>72</v>
+      </c>
+      <c r="BA65" s="25">
+        <v>73</v>
+      </c>
+      <c r="BB65" s="25">
+        <v>74</v>
+      </c>
+      <c r="BC65" s="25">
+        <v>75</v>
+      </c>
+      <c r="BD65" s="25">
+        <v>76</v>
+      </c>
+      <c r="BE65" s="25">
+        <v>77</v>
+      </c>
+      <c r="BF65" s="25">
+        <v>78</v>
+      </c>
+      <c r="BG65" s="10"/>
+      <c r="BH65" s="10"/>
+      <c r="BI65" s="10"/>
+      <c r="BJ65" s="10"/>
+      <c r="BK65" s="10"/>
+      <c r="BL65" s="10"/>
+      <c r="BM65" s="10"/>
+      <c r="BN65" s="10"/>
+      <c r="BO65" s="10"/>
+      <c r="BP65" s="10"/>
+      <c r="BQ65" s="10"/>
+      <c r="BR65" s="10"/>
+      <c r="BS65" s="10"/>
+    </row>
+    <row r="66" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="A66" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10"/>
+      <c r="AA66" s="10"/>
+      <c r="AB66" s="10"/>
+      <c r="AC66" s="10"/>
+      <c r="AD66" s="10"/>
+      <c r="AE66" s="10"/>
+      <c r="AF66" s="10"/>
+      <c r="AG66" s="10"/>
+      <c r="AH66" s="10"/>
+      <c r="AI66" s="10"/>
+      <c r="AJ66" s="10"/>
+      <c r="AK66" s="10"/>
+      <c r="AL66" s="10"/>
+      <c r="AM66" s="10"/>
+      <c r="AN66" s="10"/>
+      <c r="AO66" s="10"/>
+      <c r="AP66" s="10"/>
+      <c r="AQ66" s="10"/>
+      <c r="AR66" s="10"/>
+      <c r="AS66" s="10"/>
+      <c r="AT66" s="10"/>
+      <c r="AU66" s="25">
+        <v>81</v>
+      </c>
+      <c r="AV66" s="25">
+        <v>82</v>
+      </c>
+      <c r="AW66" s="25">
+        <v>83</v>
+      </c>
+      <c r="AX66" s="25">
+        <v>84</v>
+      </c>
+      <c r="AY66" s="25">
+        <v>85</v>
+      </c>
+      <c r="AZ66" s="25">
+        <v>86</v>
+      </c>
+      <c r="BA66" s="25">
+        <v>87</v>
+      </c>
+      <c r="BB66" s="25">
+        <v>88</v>
+      </c>
+      <c r="BC66" s="10"/>
+      <c r="BD66" s="10"/>
+      <c r="BE66" s="10"/>
+      <c r="BF66" s="10"/>
+      <c r="BG66" s="10"/>
+      <c r="BH66" s="10"/>
+      <c r="BI66" s="10"/>
+      <c r="BJ66" s="10"/>
+      <c r="BK66" s="10"/>
+      <c r="BL66" s="10"/>
+      <c r="BM66" s="10"/>
+      <c r="BN66" s="10"/>
+      <c r="BO66" s="10"/>
+      <c r="BP66" s="10"/>
+      <c r="BQ66" s="10"/>
+      <c r="BR66" s="10"/>
+      <c r="BS66" s="10"/>
+    </row>
+    <row r="67" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="A67" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+      <c r="Z67" s="10"/>
+      <c r="AA67" s="10"/>
+      <c r="AB67" s="10"/>
+      <c r="AC67" s="10"/>
+      <c r="AD67" s="10"/>
+      <c r="AE67" s="10"/>
+      <c r="AF67" s="10"/>
+      <c r="AG67" s="10"/>
+      <c r="AH67" s="10"/>
+      <c r="AI67" s="10"/>
+      <c r="AJ67" s="10"/>
+      <c r="AK67" s="10"/>
+      <c r="AL67" s="10"/>
+      <c r="AM67" s="10"/>
+      <c r="AN67" s="10"/>
+      <c r="AO67" s="10"/>
+      <c r="AP67" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ67" s="10"/>
+      <c r="AR67" s="10"/>
+      <c r="AS67" s="10"/>
+      <c r="AT67" s="10"/>
+      <c r="AU67" s="10"/>
+      <c r="AV67" s="10"/>
+      <c r="AW67" s="10"/>
+      <c r="AX67" s="10"/>
+      <c r="AY67" s="10"/>
+      <c r="AZ67" s="10"/>
+      <c r="BA67" s="10"/>
+      <c r="BB67" s="10"/>
+      <c r="BC67" s="10"/>
+      <c r="BD67" s="10"/>
+      <c r="BE67" s="10"/>
+      <c r="BF67" s="10"/>
+      <c r="BG67" s="10"/>
+      <c r="BH67" s="10"/>
+      <c r="BI67" s="10"/>
+      <c r="BJ67" s="10"/>
+      <c r="BK67" s="10"/>
+      <c r="BL67" s="10"/>
+      <c r="BM67" s="10"/>
+      <c r="BN67" s="10"/>
+      <c r="BO67" s="10"/>
+      <c r="BP67" s="10"/>
+      <c r="BQ67" s="10"/>
+      <c r="BR67" s="10"/>
+      <c r="BS67" s="10"/>
+    </row>
+    <row r="68" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="A68" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+      <c r="Z68" s="10"/>
+      <c r="AA68" s="10"/>
+      <c r="AB68" s="10"/>
+      <c r="AC68" s="10"/>
+      <c r="AD68" s="10"/>
+      <c r="AE68" s="10"/>
+      <c r="AF68" s="10"/>
+      <c r="AG68" s="10"/>
+      <c r="AH68" s="10"/>
+      <c r="AI68" s="10"/>
+      <c r="AJ68" s="10"/>
+      <c r="AK68" s="10"/>
+      <c r="AL68" s="10"/>
+      <c r="AM68" s="10"/>
+      <c r="AN68" s="10"/>
+      <c r="AO68" s="10"/>
+      <c r="AP68" s="10"/>
+      <c r="AQ68" s="10"/>
+      <c r="AR68" s="10"/>
+      <c r="AS68" s="10"/>
+      <c r="AT68" s="10"/>
+      <c r="AU68" s="10"/>
+      <c r="AV68" s="10"/>
+      <c r="AW68" s="10"/>
+      <c r="AX68" s="10"/>
+      <c r="AY68" s="10"/>
+      <c r="AZ68" s="10"/>
+      <c r="BA68" s="10"/>
+      <c r="BB68" s="10"/>
+      <c r="BC68" s="10"/>
+      <c r="BD68" s="10"/>
+      <c r="BE68" s="10"/>
+      <c r="BF68" s="10"/>
+      <c r="BG68" s="10"/>
+      <c r="BH68" s="10"/>
+      <c r="BI68" s="10"/>
+      <c r="BJ68" s="10"/>
+      <c r="BK68" s="10"/>
+      <c r="BL68" s="10"/>
+      <c r="BM68" s="10"/>
+      <c r="BN68" s="10"/>
+      <c r="BO68" s="10"/>
+      <c r="BP68" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="BQ68" s="10"/>
+      <c r="BR68" s="10"/>
+      <c r="BS68" s="10"/>
+    </row>
+    <row r="69" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="10"/>
+      <c r="AB69" s="10"/>
+      <c r="AC69" s="10"/>
+      <c r="AD69" s="10"/>
+      <c r="AE69" s="10"/>
+      <c r="AF69" s="10"/>
+      <c r="AG69" s="10"/>
+      <c r="AH69" s="10"/>
+      <c r="AI69" s="10"/>
+      <c r="AJ69" s="10"/>
+      <c r="AK69" s="10"/>
+      <c r="AL69" s="10"/>
+      <c r="AM69" s="10"/>
+      <c r="AN69" s="10"/>
+      <c r="AO69" s="10"/>
+      <c r="AP69" s="10"/>
+      <c r="AQ69" s="10"/>
+      <c r="AR69" s="10"/>
+      <c r="AS69" s="10"/>
+      <c r="AT69" s="10"/>
+      <c r="AU69" s="10"/>
+      <c r="AV69" s="10"/>
+      <c r="AW69" s="10"/>
+      <c r="AX69" s="10"/>
+      <c r="AY69" s="10"/>
+      <c r="AZ69" s="10"/>
+      <c r="BA69" s="10"/>
+      <c r="BB69" s="10"/>
+      <c r="BC69" s="10"/>
+      <c r="BD69" s="10"/>
+      <c r="BE69" s="10"/>
+      <c r="BF69" s="10"/>
+      <c r="BG69" s="10"/>
+      <c r="BH69" s="10"/>
+      <c r="BI69" s="10"/>
+      <c r="BJ69" s="10"/>
+      <c r="BK69" s="10"/>
+      <c r="BL69" s="10"/>
+      <c r="BM69" s="10"/>
+      <c r="BN69" s="10"/>
+      <c r="BO69" s="10"/>
+      <c r="BP69" s="10"/>
+      <c r="BQ69" s="10"/>
+      <c r="BR69" s="10"/>
+      <c r="BS69" s="10"/>
+    </row>
+    <row r="70" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="10"/>
+      <c r="AB70" s="10"/>
+      <c r="AC70" s="10"/>
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="10"/>
+      <c r="AF70" s="10"/>
+      <c r="AG70" s="10"/>
+      <c r="AH70" s="10"/>
+      <c r="AI70" s="10"/>
+      <c r="AJ70" s="10"/>
+      <c r="AK70" s="10"/>
+      <c r="AL70" s="10"/>
+      <c r="AM70" s="10"/>
+      <c r="AN70" s="10"/>
+      <c r="AO70" s="10"/>
+      <c r="AP70" s="10"/>
+      <c r="AQ70" s="10"/>
+      <c r="AR70" s="10"/>
+      <c r="AS70" s="10"/>
+      <c r="AT70" s="10"/>
+      <c r="AU70" s="10"/>
+      <c r="AV70" s="10"/>
+      <c r="AW70" s="10"/>
+      <c r="AX70" s="10"/>
+      <c r="AY70" s="10"/>
+      <c r="AZ70" s="10"/>
+      <c r="BA70" s="10"/>
+      <c r="BB70" s="10"/>
+      <c r="BC70" s="10"/>
+      <c r="BD70" s="10"/>
+      <c r="BE70" s="10"/>
+      <c r="BF70" s="10"/>
+      <c r="BG70" s="10"/>
+      <c r="BH70" s="10"/>
+      <c r="BI70" s="10"/>
+      <c r="BJ70" s="10"/>
+      <c r="BK70" s="10"/>
+      <c r="BL70" s="10"/>
+      <c r="BM70" s="10"/>
+      <c r="BN70" s="10"/>
+      <c r="BO70" s="10"/>
+      <c r="BP70" s="10"/>
+      <c r="BQ70" s="10"/>
+      <c r="BR70" s="10"/>
+      <c r="BS70" s="10"/>
+    </row>
+    <row r="71" spans="1:71" x14ac:dyDescent="0.45">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10"/>
+      <c r="AF71" s="10"/>
+      <c r="AG71" s="10"/>
+      <c r="AH71" s="10"/>
+      <c r="AI71" s="10"/>
+      <c r="AJ71" s="10"/>
+      <c r="AK71" s="10"/>
+      <c r="AL71" s="10"/>
+      <c r="AM71" s="10"/>
+      <c r="AN71" s="10"/>
+      <c r="AO71" s="10"/>
+      <c r="AP71" s="10"/>
+      <c r="AQ71" s="10"/>
+      <c r="AR71" s="10"/>
+      <c r="AS71" s="10"/>
+      <c r="AT71" s="10"/>
+      <c r="AU71" s="10"/>
+      <c r="AV71" s="10"/>
+      <c r="AW71" s="10"/>
+      <c r="AX71" s="10"/>
+      <c r="AY71" s="10"/>
+      <c r="AZ71" s="10"/>
+      <c r="BA71" s="10"/>
+      <c r="BB71" s="10"/>
+      <c r="BC71" s="10"/>
+      <c r="BD71" s="10"/>
+      <c r="BE71" s="10"/>
+      <c r="BF71" s="10"/>
+      <c r="BG71" s="10"/>
+      <c r="BH71" s="10"/>
+      <c r="BI71" s="10"/>
+      <c r="BJ71" s="10"/>
+      <c r="BK71" s="10"/>
+      <c r="BL71" s="10"/>
+      <c r="BM71" s="10"/>
+      <c r="BN71" s="10"/>
+      <c r="BO71" s="10"/>
+      <c r="BP71" s="10"/>
+      <c r="BQ71" s="10"/>
+      <c r="BR71" s="10"/>
+      <c r="BS71" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
